--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/bsort_alu_verify/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB2785-70C8-A54C-A456-9E1DA44499F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF78BF1-F788-4846-AACB-257ED16CFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -123,9 +123,6 @@
     <t>USE_NOPLL_DIV = 0b10</t>
   </si>
   <si>
-    <t>Critical Path (Hz)</t>
-  </si>
-  <si>
     <t>Baseline with USE_NOPLL_DIV = 0b10</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Proposal 1 + Adder</t>
+  </si>
+  <si>
+    <t>cache 1 word</t>
+  </si>
+  <si>
+    <t>clock frequency (Hz)</t>
   </si>
 </sst>
 </file>
@@ -200,14 +203,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -519,531 +522,718 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="11" style="3"/>
-    <col min="7" max="7" width="18.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11" style="3"/>
-    <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="19.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="3"/>
+    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4"/>
+    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4"/>
+    <col min="7" max="7" width="11" style="3"/>
+    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3"/>
+    <col min="11" max="11" width="22" style="3" customWidth="1"/>
+    <col min="12" max="14" width="11" style="3"/>
+    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D4" s="1">
         <v>4.1321500000000002E-3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>10.47</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>3238</v>
       </c>
-      <c r="F4" s="3">
-        <f>6000000/(D4*B31)</f>
+      <c r="G4" s="3">
+        <f>$B4/(E4*C$31)</f>
         <v>2.9847182425978982</v>
       </c>
-      <c r="H4" s="3">
-        <f>C4/D4/192000*1000000000</f>
+      <c r="I4" s="3">
+        <f>D4/E4/192000*1000000000</f>
         <v>2.0555505810251513</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="3" t="e">
+        <f>$B4/(L4*J$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D5" s="3">
         <v>7.58203E-3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>20.95</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>3238</v>
       </c>
-      <c r="F5" s="3">
-        <f>12000000/(D5*B31)</f>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G20" si="0">$B5/(E5*C$31)</f>
         <v>2.9832935560859188</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>12.56</v>
       </c>
-      <c r="H5" s="3">
-        <f t="shared" ref="H5:H18" si="0">C5/D5/192000*1000000000</f>
+      <c r="I5" s="3">
+        <f>D5/E5/192000*1000000000</f>
         <v>1.88495177008751</v>
       </c>
-      <c r="M5" s="3" t="e">
-        <f>12000000/(K5*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="L5" s="3">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N5" s="3" t="e">
+        <f t="shared" ref="N5:N20" si="1">$B5/(L5*J$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="3">
         <v>12.26</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D6" s="3">
         <v>4.2287499999999999E-3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>10.465</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>3270</v>
       </c>
-      <c r="F6" s="3">
-        <f>6000000/(D6*B31)</f>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
+      <c r="I6" s="3">
+        <f>D6/E6/192000*1000000000</f>
         <v>2.1046096114030894</v>
       </c>
-      <c r="M6" s="3" t="e">
-        <f>12000000/(K6*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="3" t="e">
+        <f>$B6/(L18*J$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D7" s="3">
         <v>4.00118E-3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>10.49</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>3270</v>
       </c>
-      <c r="F7" s="3">
-        <f>6000000/(D7*B31)</f>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
         <v>2.979027645376549</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
+      <c r="I7" s="3">
+        <f>D7/E7/192000*1000000000</f>
         <v>1.9866043056879568</v>
       </c>
-      <c r="M7" s="3" t="e">
-        <f>12000000/(K7*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="3" t="e">
+        <f>$B7/(L19*J$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D8" s="3">
         <v>4.0526E-3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>10.43</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>3247</v>
       </c>
-      <c r="F8" s="3">
-        <f>6000000/(D8*B31)</f>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
         <v>2.9961649089165867</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
+      <c r="I8" s="3">
+        <f>D8/E8/192000*1000000000</f>
         <v>2.023709651645893</v>
       </c>
-      <c r="M8" s="3" t="e">
-        <f>12000000/(K8*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N8" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D9" s="3">
         <v>4.0426100000000003E-3</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>10.35</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>3222</v>
       </c>
-      <c r="F9" s="3">
-        <f>6000000/(D9*B31)</f>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>3.0193236714975846</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
+      <c r="I9" s="3">
+        <f>D9/E9/192000*1000000000</f>
         <v>2.0343246779388084</v>
       </c>
-      <c r="M9" s="3" t="e">
-        <f>12000000/(K9*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="B10" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D10" s="3">
         <v>4.4236600000000003E-3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>10.46</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>3180</v>
       </c>
-      <c r="F10" s="3">
-        <f>6000000/(D10*B31)</f>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
+      <c r="I10" s="3">
+        <f>D10/E10/192000*1000000000</f>
         <v>2.2026669056724026</v>
       </c>
-      <c r="M10" s="3" t="e">
-        <f t="shared" ref="M10" si="1">12000000/(K10*I35)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="B11" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="F11" s="4">
         <v>3238</v>
       </c>
-      <c r="F11" s="3" t="e">
-        <f>6000000/(D11*B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="3" t="e">
-        <f>12000000/(K11*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="3" t="e">
+        <f>D11/E11/192000*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D12" s="3">
         <v>3.87594E-3</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>10.46</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <v>3216</v>
       </c>
-      <c r="F12" s="3">
-        <f>6000000/(D12*B31)</f>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
+      <c r="I12" s="3">
+        <f>D12/E12/192000*1000000000</f>
         <v>1.929941443594646</v>
       </c>
-      <c r="M12" s="3" t="e">
-        <f t="shared" ref="M12" si="2">12000000/(K12*I37)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D13" s="3">
         <v>4.1336799999999998E-3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>10.465</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>3238</v>
       </c>
-      <c r="F13" s="3">
-        <f>6000000/(D13*B31)</f>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
+      <c r="I13" s="3">
+        <f>D13/E13/192000*1000000000</f>
         <v>2.0572941551202417</v>
       </c>
-      <c r="M13" s="3" t="e">
-        <f>12000000/(K13*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4">
+      <c r="B14" s="4">
+        <v>16000000</v>
+      </c>
+      <c r="F14" s="4">
         <v>3238</v>
       </c>
-      <c r="F14" s="3" t="e">
-        <f>6000000/(D14*B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="3" t="e">
-        <f t="shared" ref="M14" si="3">12000000/(K14*I39)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="3" t="e">
+        <f>D14/E14/192000*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="D15" s="3">
         <v>5.7999599999999998E-3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>6.96</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <v>3246</v>
       </c>
-      <c r="F15" s="3">
-        <f>4000000/(D15*B31)</f>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
+      <c r="I15" s="3">
+        <f>D15/E15/192000*1000000000</f>
         <v>4.3402478448275854</v>
       </c>
-      <c r="M15" s="3" t="e">
-        <f>12000000/(K15*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="3">
         <v>2.5024000000000001E-3</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>3238</v>
       </c>
-      <c r="F16" s="3">
-        <f>10000/(D16*B31)</f>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
+      <c r="I16" s="3">
+        <f>D16/E16/192000*1000000000</f>
         <v>749.04214559386992</v>
       </c>
-      <c r="M16" s="3" t="e">
-        <f>12000000/(K16*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="B17" s="4">
+        <v>12500000</v>
+      </c>
+      <c r="D17" s="3">
         <v>1.1715339999999999E-2</v>
       </c>
-      <c r="F17" s="3" t="e">
-        <f>6000000/(D17*B31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="3" t="e">
-        <f>12000000/(K17*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="3" t="e">
+        <f>D17/E17/192000*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="4">
+      <c r="B18" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20.92</v>
+      </c>
+      <c r="F18" s="4">
         <v>3252</v>
       </c>
-      <c r="F18" s="3" t="e">
-        <f>6000000/(D18*B31)</f>
-        <v>#DIV/0!</v>
-      </c>
       <c r="G18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.987571701720841</v>
+      </c>
+      <c r="H18" s="3">
         <v>12.13</v>
       </c>
-      <c r="H18" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="I18" s="3">
+        <f>D18/E18/192000*1000000000</f>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M18" s="3">
         <v>4818</v>
       </c>
-      <c r="M18" s="3" t="e">
-        <f>12000000/(K18*I31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="e">
+        <f>$B18/(#REF!*J$31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="3">
         <v>13.94</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20.95</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3190</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9832935560859188</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13.34</v>
+      </c>
+      <c r="I19" s="3">
+        <f>D19/E19/192000*1000000000</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>4753</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f>$B19/(#REF!*J$31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="3">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
-        <v>3190</v>
-      </c>
-      <c r="G19" s="3">
-        <v>13.34</v>
-      </c>
-      <c r="L19" s="3">
-        <v>4753</v>
-      </c>
-      <c r="N19" s="3">
-        <v>13.09</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10.73</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9123951537744643</v>
+      </c>
+      <c r="N20" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:P1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:F20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D20">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\f-of-e-tools\verilog\hardware\processor\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF78BF1-F788-4846-AACB-257ED16CFCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8FF9F-0414-C24F-9CAA-FB3EC4CC95D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31400" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -132,10 +132,13 @@
     <t>Proposal 1 + Adder</t>
   </si>
   <si>
-    <t>cache 1 word</t>
-  </si>
-  <si>
     <t>clock frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Proposal 1 + ANDXOR</t>
+  </si>
+  <si>
+    <t>Cache 1 word</t>
   </si>
 </sst>
 </file>
@@ -210,7 +213,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,32 +525,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="4"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="7" width="11" style="3"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -567,10 +570,10 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -610,7 +613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -627,19 +630,19 @@
         <v>3238</v>
       </c>
       <c r="G4" s="3">
-        <f>$B4/(E4*C$31)</f>
+        <f>$B4/(E4*C$32)</f>
         <v>2.9847182425978982</v>
       </c>
       <c r="I4" s="3">
-        <f>D4/E4/192000*1000000000</f>
+        <f t="shared" ref="I4:I19" si="0">D4/E4/192000*1000000000</f>
         <v>2.0555505810251513</v>
       </c>
       <c r="N4" s="3" t="e">
-        <f>$B4/(L4*J$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B4/(L4*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -647,7 +650,7 @@
         <v>12000000</v>
       </c>
       <c r="D5" s="3">
-        <v>7.58203E-3</v>
+        <v>7.8554799999999998E-3</v>
       </c>
       <c r="E5" s="3">
         <v>20.95</v>
@@ -656,28 +659,31 @@
         <v>3238</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G20" si="0">$B5/(E5*C$31)</f>
+        <f>$B5/(E5*C$32)</f>
         <v>2.9832935560859188</v>
       </c>
       <c r="H5" s="3">
         <v>12.56</v>
       </c>
       <c r="I5" s="3">
-        <f>D5/E5/192000*1000000000</f>
-        <v>1.88495177008751</v>
+        <f t="shared" si="0"/>
+        <v>1.9529335719968179</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.055913E-2</v>
       </c>
       <c r="L5" s="3">
         <v>0.99099999999999999</v>
       </c>
       <c r="N5" s="3" t="e">
-        <f t="shared" ref="N5:N20" si="1">$B5/(L5*J$31)</f>
+        <f>$B5/(L5*J$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="3">
         <v>12.26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -694,19 +700,19 @@
         <v>3270</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f>$B6/(E6*C$32)</f>
         <v>2.9861442904921165</v>
       </c>
       <c r="I6" s="3">
-        <f>D6/E6/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.1046096114030894</v>
       </c>
       <c r="N6" s="3" t="e">
-        <f>$B6/(L18*J$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B6/(L18*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -723,19 +729,19 @@
         <v>3270</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>$B7/(E7*C$32)</f>
         <v>2.979027645376549</v>
       </c>
       <c r="I7" s="3">
-        <f>D7/E7/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.9866043056879568</v>
       </c>
       <c r="N7" s="3" t="e">
-        <f>$B7/(L19*J$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B7/(L19*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -752,19 +758,19 @@
         <v>3247</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>$B8/(E8*C$32)</f>
         <v>2.9961649089165867</v>
       </c>
       <c r="I8" s="3">
-        <f>D8/E8/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.023709651645893</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B8/(L8*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,19 +787,19 @@
         <v>3222</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>$B9/(E9*C$32)</f>
         <v>3.0193236714975846</v>
       </c>
       <c r="I9" s="3">
-        <f>D9/E9/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.0343246779388084</v>
       </c>
       <c r="N9" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B9/(L9*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -810,42 +816,45 @@
         <v>3180</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f>$B10/(E10*C$32)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I10" s="3">
-        <f>D10/E10/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.2026669056724026</v>
       </c>
       <c r="N10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B10/(L10*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4">
         <v>6000000</v>
       </c>
+      <c r="D11" s="3">
+        <v>4.4683600000000002E-3</v>
+      </c>
       <c r="F11" s="4">
         <v>3238</v>
       </c>
       <c r="G11" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>$B11/(E11*C$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="3" t="e">
-        <f>D11/E11/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B11/(L11*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -862,19 +871,19 @@
         <v>3216</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>$B12/(E12*C$32)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I12" s="3">
-        <f>D12/E12/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>1.929941443594646</v>
       </c>
       <c r="N12" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B12/(L12*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -891,19 +900,19 @@
         <v>3238</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f>$B13/(E13*C$32)</f>
         <v>2.9861442904921165</v>
       </c>
       <c r="I13" s="3">
-        <f>D13/E13/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>2.0572941551202417</v>
       </c>
       <c r="N13" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B13/(L13*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -914,19 +923,19 @@
         <v>3238</v>
       </c>
       <c r="G14" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>$B14/(E14*C$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="3" t="e">
-        <f>D14/E14/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B14/(L14*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -943,19 +952,19 @@
         <v>3246</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f>$B15/(E15*C$32)</f>
         <v>2.9932950191570882</v>
       </c>
       <c r="I15" s="3">
-        <f>D15/E15/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>4.3402478448275854</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <f>$B15/(L15*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -972,19 +981,19 @@
         <v>3238</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f>$B16/(E16*C$32)</f>
         <v>2.9932950191570882</v>
       </c>
       <c r="I16" s="3">
-        <f>D16/E16/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>749.04214559386992</v>
       </c>
       <c r="N16" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+        <f>$B16/(L16*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -995,25 +1004,28 @@
         <v>1.1715339999999999E-2</v>
       </c>
       <c r="G17" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>$B17/(E17*C$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="3" t="e">
-        <f>D17/E17/192000*1000000000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <f>$B17/(L17*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
         <v>12000000</v>
       </c>
+      <c r="D18" s="3">
+        <v>7.46066E-3</v>
+      </c>
       <c r="E18" s="3">
         <v>20.92</v>
       </c>
@@ -1021,15 +1033,18 @@
         <v>3252</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f>$B18/(E18*C$32)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="H18" s="3">
         <v>12.13</v>
       </c>
       <c r="I18" s="3">
-        <f>D18/E18/192000*1000000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.8574380576800509</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1.072027E-2</v>
       </c>
       <c r="L18" s="3">
         <v>0.98699999999999999</v>
@@ -1038,20 +1053,23 @@
         <v>4818</v>
       </c>
       <c r="N18" s="3" t="e">
-        <f>$B18/(#REF!*J$31)</f>
+        <f>$B18/(#REF!*J$32)</f>
         <v>#REF!</v>
       </c>
       <c r="O18" s="3">
         <v>13.94</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="4">
         <v>12000000</v>
       </c>
+      <c r="D19" s="3">
+        <v>7.84551E-3</v>
+      </c>
       <c r="E19" s="3">
         <v>20.95</v>
       </c>
@@ -1059,15 +1077,18 @@
         <v>3190</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f>$B19/(E19*C$32)</f>
         <v>2.9832935560859188</v>
       </c>
       <c r="H19" s="3">
         <v>13.34</v>
       </c>
       <c r="I19" s="3">
-        <f>D19/E19/192000*1000000000</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.9504549522673031</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1.102446E-2</v>
       </c>
       <c r="L19" s="3">
         <v>0.98599999999999999</v>
@@ -1076,72 +1097,86 @@
         <v>4753</v>
       </c>
       <c r="N19" s="3" t="e">
-        <f>$B19/(#REF!*J$31)</f>
+        <f>$B19/(#REF!*J$32)</f>
         <v>#REF!</v>
       </c>
       <c r="O19" s="3">
         <v>13.09</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>8.1435699999999993E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
         <v>6000000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="D21" s="3">
+        <v>4.6831299999999998E-3</v>
+      </c>
+      <c r="E21" s="3">
         <v>10.73</v>
       </c>
-      <c r="G20" s="3">
-        <f t="shared" si="0"/>
+      <c r="G21" s="3">
+        <f>$B21/(E21*C$32)</f>
         <v>2.9123951537744643</v>
       </c>
-      <c r="N20" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="N21" s="3" t="e">
+        <f>$B21/(L21*J$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="3" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1150,8 +1185,8 @@
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F20">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="F4:F21">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1162,8 +1197,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G20">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="G4:G21">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1174,8 +1209,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="H4:H21">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1186,8 +1221,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I20">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="I4:I21">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1198,8 +1233,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D20">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D4:D21">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1210,8 +1245,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E20">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="E4:E21">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1222,8 +1257,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N20">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="N4:N21">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\f-of-e-tools\verilog\hardware\processor\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0CA90-BC55-4EE7-8622-9223B5129055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C2A9E-E0D2-9E4C-847F-70429A1694DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27000" windowHeight="14235" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="27000" windowHeight="14240" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,7 +217,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,29 +532,29 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="4"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
     <col min="7" max="7" width="11" style="3"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="3" customWidth="1"/>
     <col min="17" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -573,7 +574,7 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>32</v>
@@ -616,7 +617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -649,7 +650,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -694,7 +695,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,7 +728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +761,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -793,7 +794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,7 +827,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -859,7 +860,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -889,7 +890,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -922,7 +923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -955,7 +956,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -982,7 +983,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1226,12 +1227,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4">
         <v>12000000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.0161750000000001E-2</v>
       </c>
       <c r="E22" s="3">
         <v>21.48</v>
@@ -1248,10 +1252,10 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" ref="I22" si="4">D22/E22/C$32*1000000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2.4639562965549349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1259,37 +1263,37 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>28</v>
       </c>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C2A9E-E0D2-9E4C-847F-70429A1694DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1085072A-430A-7D4B-8598-BE4B382A3926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="27000" windowHeight="14240" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -143,6 +142,24 @@
   </si>
   <si>
     <t>Proposal 2 (proposal 1 + all DSP + 1 word cache)</t>
+  </si>
+  <si>
+    <t>Proposal 1 + Adder + INSRAM1</t>
+  </si>
+  <si>
+    <t>Proposal 2 + INSRAM2</t>
+  </si>
+  <si>
+    <t>Proposal 1 + Adder + INSRAM2</t>
+  </si>
+  <si>
+    <t>Proposal 1 + Adder + INSRAM3</t>
+  </si>
+  <si>
+    <t>Proposal 2 + INSRAM3</t>
+  </si>
+  <si>
+    <t>Proposal 2 + INSRAM1</t>
   </si>
 </sst>
 </file>
@@ -531,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1253,6 +1270,90 @@
       <c r="I22" s="3">
         <f t="shared" ref="I22" si="4">D22/E22/C$32*1000000000</f>
         <v>2.4639562965549349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2407</v>
+      </c>
+      <c r="O23" s="3">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2577</v>
+      </c>
+      <c r="O24" s="3">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2385</v>
+      </c>
+      <c r="O25" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2555</v>
+      </c>
+      <c r="O26" s="3">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2385</v>
+      </c>
+      <c r="O27" s="3">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2555</v>
+      </c>
+      <c r="O28" s="3">
+        <v>11.1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C2A9E-E0D2-9E4C-847F-70429A1694DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D911521-B10D-B641-9301-AD31265B2126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="27000" windowHeight="14240" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -143,6 +142,15 @@
   </si>
   <si>
     <t>Proposal 2 (proposal 1 + all DSP + 1 word cache)</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>Proposal 1  + 1 word cache</t>
+  </si>
+  <si>
+    <t>Proposal 1 + all DSPs</t>
   </si>
 </sst>
 </file>
@@ -204,13 +212,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -550,31 +561,47 @@
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
     <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="11" style="3"/>
+    <col min="16" max="17" width="17.83203125" style="3" customWidth="1"/>
+    <col min="18" max="19" width="11" style="4"/>
+    <col min="20" max="22" width="11" style="3"/>
+    <col min="23" max="23" width="18.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="21" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>32</v>
@@ -616,8 +643,29 @@
       <c r="P2" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -649,8 +697,25 @@
         <f>K4/L4/J$32*1000000000</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="V4" s="3">
+        <v>4632</v>
+      </c>
+      <c r="W4" s="3" t="e">
+        <f>$B4/(U4*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="3">
+        <v>12.14</v>
+      </c>
+      <c r="Y4" s="3" t="e">
+        <f>T4/U4/R$32*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -694,8 +759,19 @@
         <f t="shared" ref="P5:P21" si="2">K5/L5/J$32*1000000000</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W5" s="3" t="e">
+        <f>$B5/(U5*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y5" s="3" t="e">
+        <f t="shared" ref="Y5:Y21" si="3">T5/U5/R$32*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -727,8 +803,19 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W6" s="3" t="e">
+        <f>$B6/(U18*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y6" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,8 +847,19 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W7" s="3" t="e">
+        <f>$B7/(U19*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y7" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -786,15 +884,26 @@
         <v>2.023709651645893</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f t="shared" ref="N8:N17" si="3">$B8/(L8*J$32)</f>
+        <f t="shared" ref="N8:N17" si="4">$B8/(L8*J$32)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R8" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W8" s="3" t="e">
+        <f t="shared" ref="W8:W17" si="5">$B8/(U8*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y8" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,15 +928,26 @@
         <v>2.0343246779388084</v>
       </c>
       <c r="N9" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W9" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y9" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -852,15 +972,26 @@
         <v>2.2026669056724026</v>
       </c>
       <c r="N10" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R10" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W10" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y10" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -882,15 +1013,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W11" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y11" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -915,15 +1057,26 @@
         <v>1.929941443594646</v>
       </c>
       <c r="N12" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P12" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W12" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y12" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -948,15 +1101,26 @@
         <v>2.0572941551202417</v>
       </c>
       <c r="N13" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P13" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W13" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -975,15 +1139,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N14" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P14" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W14" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1008,15 +1183,26 @@
         <v>4.3402478448275854</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P15" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W15" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1041,15 +1227,26 @@
         <v>749.04214559386992</v>
       </c>
       <c r="N16" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W16" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1068,15 +1265,26 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W17" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y17" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1123,8 +1331,25 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V18" s="3">
+        <v>4677</v>
+      </c>
+      <c r="W18" s="3" t="e">
+        <f>$B18/(#REF!*R$32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X18" s="3">
+        <v>12.91</v>
+      </c>
+      <c r="Y18" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1171,8 +1396,25 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V19" s="3">
+        <v>4615</v>
+      </c>
+      <c r="W19" s="3" t="e">
+        <f>$B19/(#REF!*R$32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X19" s="3">
+        <v>12.01</v>
+      </c>
+      <c r="Y19" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1190,8 +1432,15 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="Y20" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1226,8 +1475,19 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="W21" s="3" t="e">
+        <f>$B21/(U21*R$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1251,11 +1511,48 @@
         <v>11.53</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22" si="4">D22/E22/C$32*1000000000</f>
+        <f t="shared" ref="I22" si="6">D22/E22/C$32*1000000000</f>
         <v>2.4639562965549349</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V22" s="3">
+        <v>4584</v>
+      </c>
+      <c r="X22" s="3">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V23" s="3">
+        <v>4826</v>
+      </c>
+      <c r="X23" s="3">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V24" s="3">
+        <v>4406</v>
+      </c>
+      <c r="X24" s="3">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1299,12 +1596,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="K1:P1"/>
+    <mergeCell ref="T1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F22">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1316,7 +1614,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G22">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1328,7 +1626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H22">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1340,7 +1638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I22">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1352,7 +1650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D22">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1364,7 +1662,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E22">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1376,6 +1674,138 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K21">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L21">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:Q21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1387,55 +1817,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P21">
+  <conditionalFormatting sqref="V4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D911521-B10D-B641-9301-AD31265B2126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4062692-C5D7-B44C-9F05-078B580EAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Proposal 1 + all DSPs</t>
+  </si>
+  <si>
+    <t>Proposal 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache 1w 1c init </t>
+  </si>
+  <si>
+    <t>Cache 4w delayed</t>
+  </si>
+  <si>
+    <t>Comp</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -225,6 +237,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1550,6 +1563,38 @@
       </c>
       <c r="X24" s="3">
         <v>14.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2.1749669999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1.000349E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.170236E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6.1450599999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4062692-C5D7-B44C-9F05-078B580EAE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D0C96-2B10-4AEE-9C3F-00CC401BEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20480" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -234,14 +234,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,66 +555,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4"/>
     <col min="7" max="7" width="11" style="3"/>
-    <col min="8" max="8" width="18.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
-    <col min="16" max="17" width="17.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
+    <col min="16" max="17" width="17.875" style="3" customWidth="1"/>
     <col min="18" max="19" width="11" style="4"/>
     <col min="20" max="22" width="11" style="3"/>
-    <col min="23" max="23" width="18.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="18.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.375" style="3" customWidth="1"/>
     <col min="25" max="25" width="21" style="3" customWidth="1"/>
     <col min="26" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>32</v>
@@ -678,7 +678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -728,7 +728,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -784,7 +784,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -916,7 +916,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,7 +960,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>11.53</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" ref="I22" si="6">D22/E22/C$32*1000000000</f>
+        <f t="shared" ref="I22:I27" si="6">D22/E22/C$32*1000000000</f>
         <v>2.4639562965549349</v>
       </c>
       <c r="R22" s="4">
@@ -1537,10 +1537,18 @@
         <v>11.21</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="G23" s="3" t="e">
+        <f t="shared" ref="G23:G29" si="7">$B23/(E23*C$32)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R23" s="4">
         <v>12000000</v>
       </c>
@@ -1551,10 +1559,18 @@
         <v>11.06</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G24" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R24" s="4">
         <v>12000000</v>
       </c>
@@ -1565,31 +1581,73 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B25" s="4">
+        <v>12000000</v>
+      </c>
       <c r="D25" s="3">
         <v>2.1749669999999999E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4124293785310735</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5599894067796605</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B26" s="4">
+        <v>6000000</v>
+      </c>
       <c r="D26" s="3">
         <v>1.000349E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="7"/>
+        <v>2.1551724137931036</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="6"/>
+        <v>3.5932076149425289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="8">
+      <c r="B27" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D27" s="7">
         <v>1.170236E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4204545454545454</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7704450757575758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -1597,7 +1655,7 @@
         <v>6.1450599999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,37 +1663,37 @@
         <v>192000</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
         <v>28</v>
       </c>
@@ -1647,7 +1705,7 @@
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F22">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1658,8 +1716,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G22">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="G4:G29">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1671,7 +1729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H22">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1682,8 +1740,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I22">
-    <cfRule type="colorScale" priority="29">
+  <conditionalFormatting sqref="I4:I27">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1695,7 +1753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D22">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1707,7 +1765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E22">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1719,7 +1777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1731,6 +1789,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L21">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1742,20 +1812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L21">
+  <conditionalFormatting sqref="M4:M21">
     <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M21">
-    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1767,7 +1825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O21">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1779,7 +1837,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:Q21">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1791,6 +1849,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1802,68 +1920,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X21">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y21">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V4">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\f-of-e-tools\verilog\hardware\processor\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D0C96-2B10-4AEE-9C3F-00CC401BEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731B8D-5833-9C49-B171-916AEF0CD5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>USE_SMALL_ADDR</t>
-  </si>
-  <si>
-    <t>USE_PLL_CLK</t>
   </si>
   <si>
     <t>Baseline (USE_HFOSC &amp; USE_NOPLL_DIV ON FOR ALL)</t>
@@ -172,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +199,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -235,13 +238,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,134 +557,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="4"/>
-    <col min="7" max="7" width="11" style="3"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="14" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="17.875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
+    <col min="16" max="17" width="17.83203125" style="3" customWidth="1"/>
     <col min="18" max="19" width="11" style="4"/>
     <col min="20" max="22" width="11" style="3"/>
-    <col min="23" max="23" width="18.625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" style="3" customWidth="1"/>
     <col min="25" max="25" width="21" style="3" customWidth="1"/>
     <col min="26" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="T1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="R2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="W2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>6000000</v>
@@ -689,25 +693,25 @@
         <v>4.1321500000000002E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>10.47</v>
+        <v>10.46</v>
       </c>
       <c r="F4" s="4">
         <v>3238</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G19" si="0">$B4/(E4*C$32)</f>
-        <v>2.9847182425978982</v>
+        <f t="shared" ref="G4:G21" si="0">$B4/(E4*C$31)</f>
+        <v>2.987571701720841</v>
       </c>
       <c r="I4" s="3">
-        <f>D4/E4/C$32*1000000000</f>
-        <v>2.0555505810251513</v>
+        <f t="shared" ref="I4:I20" si="1">D4/E4/C$31*1000000000</f>
+        <v>2.0575157345442956</v>
       </c>
       <c r="N4" s="3" t="e">
-        <f>$B4/(L4*J$32)</f>
+        <f>$B4/(L4*J$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="3" t="e">
-        <f>K4/L4/J$32*1000000000</f>
+        <f t="shared" ref="P4:P20" si="2">K4/L4/J$31*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="4">
@@ -717,20 +721,20 @@
         <v>4632</v>
       </c>
       <c r="W4" s="3" t="e">
-        <f>$B4/(U4*R$32)</f>
+        <f>$B4/(U4*R$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X4" s="3">
         <v>12.14</v>
       </c>
       <c r="Y4" s="3" t="e">
-        <f>T4/U4/R$32*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y4:Y20" si="3">T4/U4/R$31*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4">
         <v>12000000</v>
@@ -752,39 +756,36 @@
         <v>12.56</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" ref="I5:I21" si="1">D5/E5/C$32*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9529335719968179</v>
       </c>
-      <c r="K5" s="3">
-        <v>1.055913E-2</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.99099999999999999</v>
+      <c r="M5" s="3">
+        <v>4682</v>
       </c>
       <c r="N5" s="3" t="e">
-        <f>$B5/(L5*J$32)</f>
+        <f>$B5/(L5*J$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="3">
-        <v>12.26</v>
+        <v>11.88</v>
       </c>
       <c r="P5" s="3" t="e">
-        <f t="shared" ref="P5:P21" si="2">K5/L5/J$32*1000000000</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="4">
         <v>12000000</v>
       </c>
       <c r="W5" s="3" t="e">
-        <f>$B5/(U5*R$32)</f>
+        <f>$B5/(U5*R$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="3" t="e">
-        <f t="shared" ref="Y5:Y21" si="3">T5/U5/R$32*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -808,9 +809,18 @@
         <f t="shared" si="1"/>
         <v>2.1046096114030894</v>
       </c>
-      <c r="N6" s="3" t="e">
-        <f>$B6/(L18*J$32)</f>
-        <v>#DIV/0!</v>
+      <c r="K6" s="3">
+        <v>6.4248233134858359E-3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4719</v>
+      </c>
+      <c r="N6" s="3">
+        <f>$B6/(L17*J$31)</f>
+        <v>0.50820428596976253</v>
+      </c>
+      <c r="O6" s="3">
+        <v>11.86</v>
       </c>
       <c r="P6" s="3" t="e">
         <f t="shared" si="2"/>
@@ -820,7 +830,7 @@
         <v>12000000</v>
       </c>
       <c r="W6" s="3" t="e">
-        <f>$B6/(U18*R$32)</f>
+        <f>$B6/(U17*R$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y6" s="3" t="e">
@@ -828,7 +838,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -852,9 +862,18 @@
         <f t="shared" si="1"/>
         <v>1.9866043056879568</v>
       </c>
-      <c r="N7" s="3" t="e">
-        <f>$B7/(L19*J$32)</f>
-        <v>#DIV/0!</v>
+      <c r="K7" s="3">
+        <v>6.4716965999714335E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>4719</v>
+      </c>
+      <c r="N7" s="3">
+        <f>$B7/(L18*J$31)</f>
+        <v>0.50871970613808881</v>
+      </c>
+      <c r="O7" s="3">
+        <v>12.18</v>
       </c>
       <c r="P7" s="3" t="e">
         <f t="shared" si="2"/>
@@ -864,7 +883,7 @@
         <v>12000000</v>
       </c>
       <c r="W7" s="3" t="e">
-        <f>$B7/(U19*R$32)</f>
+        <f>$B7/(U18*R$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y7" s="3" t="e">
@@ -872,7 +891,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -897,7 +916,7 @@
         <v>2.023709651645893</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f t="shared" ref="N8:N17" si="4">$B8/(L8*J$32)</f>
+        <f t="shared" ref="N8:N16" si="4">$B8/(L8*J$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
@@ -908,7 +927,7 @@
         <v>12000000</v>
       </c>
       <c r="W8" s="3" t="e">
-        <f t="shared" ref="W8:W17" si="5">$B8/(U8*R$32)</f>
+        <f t="shared" ref="W8:W16" si="5">$B8/(U8*R$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y8" s="3" t="e">
@@ -916,7 +935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,7 +979,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,10 +1003,19 @@
         <f t="shared" si="1"/>
         <v>2.2026669056724026</v>
       </c>
+      <c r="K10" s="3">
+        <v>6.7523845665014553E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4612</v>
+      </c>
       <c r="N10" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O10" s="3">
+        <v>13.18</v>
+      </c>
       <c r="P10" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1004,7 +1032,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1014,16 +1042,19 @@
       <c r="D11" s="3">
         <v>4.4683600000000002E-3</v>
       </c>
+      <c r="E11" s="3">
+        <v>10.46</v>
+      </c>
       <c r="F11" s="4">
         <v>3238</v>
       </c>
-      <c r="G11" s="3" t="e">
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="3" t="e">
+        <v>2.987571701720841</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.2249243148502229</v>
       </c>
       <c r="N11" s="3" t="e">
         <f t="shared" si="4"/>
@@ -1045,7 +1076,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1069,10 +1100,19 @@
         <f t="shared" si="1"/>
         <v>1.929941443594646</v>
       </c>
+      <c r="K12" s="3">
+        <v>6.3008904232331516E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4647</v>
+      </c>
       <c r="N12" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O12" s="3">
+        <v>12.54</v>
+      </c>
       <c r="P12" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1089,9 +1129,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>6000000</v>
@@ -1113,10 +1153,19 @@
         <f t="shared" si="1"/>
         <v>2.0572941551202417</v>
       </c>
+      <c r="K13" s="3">
+        <v>6.6413290983351886E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>4664</v>
+      </c>
       <c r="N13" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O13" s="3">
+        <v>11.7</v>
+      </c>
       <c r="P13" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1133,28 +1182,43 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>16000000</v>
+        <v>4000000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.7999599999999998E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.96</v>
       </c>
       <c r="F14" s="4">
-        <v>3238</v>
-      </c>
-      <c r="G14" s="3" t="e">
+        <v>3246</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="3" t="e">
+        <v>2.9932950191570882</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.3402478448275854</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1.7847086379895957E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>4675</v>
       </c>
       <c r="N14" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O14" s="3">
+        <v>11.96</v>
+      </c>
       <c r="P14" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1171,21 +1235,21 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>4000000</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="3">
-        <v>5.7999599999999998E-3</v>
+        <v>2.5024000000000001E-3</v>
       </c>
       <c r="E15" s="3">
-        <v>6.96</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>3246</v>
+        <v>3238</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -1193,12 +1257,18 @@
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
-        <v>4.3402478448275854</v>
+        <v>749.04214559386992</v>
+      </c>
+      <c r="M15" s="3">
+        <v>4682</v>
       </c>
       <c r="N15" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="O15" s="3">
+        <v>11.86</v>
+      </c>
       <c r="P15" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1215,29 +1285,26 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>10000</v>
+        <v>12500000</v>
       </c>
       <c r="D16" s="3">
-        <v>2.5024000000000001E-3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1.7399999999999999E-2</v>
+        <v>1.1715339999999999E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>3238</v>
-      </c>
-      <c r="G16" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>2.9932950191570882</v>
-      </c>
-      <c r="I16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>749.04214559386992</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3" t="e">
         <f t="shared" si="4"/>
@@ -1259,151 +1326,156 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4">
-        <v>12500000</v>
+        <v>12000000</v>
       </c>
       <c r="D17" s="3">
-        <v>1.1715339999999999E-2</v>
-      </c>
-      <c r="G17" s="3" t="e">
+        <v>7.46066E-3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20.92</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3252</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="3" t="e">
+        <v>2.987571701720841</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12.13</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.8574380576800509</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1.072027E-2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4818</v>
       </c>
       <c r="N17" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="3" t="e">
+        <f>$B17/(#REF!*J$31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="3">
+        <v>13.94</v>
+      </c>
+      <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.90801452679217787</v>
       </c>
       <c r="R17" s="4">
         <v>12000000</v>
       </c>
+      <c r="V17" s="3">
+        <v>4677</v>
+      </c>
       <c r="W17" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>$B17/(#REF!*R$31)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X17" s="3">
+        <v>12.91</v>
       </c>
       <c r="Y17" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4">
         <v>12000000</v>
       </c>
       <c r="D18" s="3">
-        <v>7.46066E-3</v>
+        <v>7.84551E-3</v>
       </c>
       <c r="E18" s="3">
-        <v>20.92</v>
+        <v>20.95</v>
       </c>
       <c r="F18" s="4">
-        <v>3252</v>
+        <v>3190</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>2.987571701720841</v>
+        <v>2.9832935560859188</v>
       </c>
       <c r="H18" s="3">
-        <v>12.13</v>
+        <v>13.34</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="1"/>
-        <v>1.8574380576800509</v>
+        <v>1.9504549522673031</v>
       </c>
       <c r="K18" s="3">
-        <v>1.072027E-2</v>
+        <v>1.102446E-2</v>
       </c>
       <c r="L18" s="3">
-        <v>0.98699999999999999</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="M18" s="3">
-        <v>4818</v>
+        <v>4753</v>
       </c>
       <c r="N18" s="3" t="e">
-        <f>$B18/(#REF!*J$32)</f>
+        <f>$B18/(#REF!*J$31)</f>
         <v>#REF!</v>
       </c>
       <c r="O18" s="3">
-        <v>13.94</v>
-      </c>
-      <c r="P18" s="3" t="e">
+        <v>13.09</v>
+      </c>
+      <c r="P18" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.93472667525518593</v>
       </c>
       <c r="R18" s="4">
         <v>12000000</v>
       </c>
       <c r="V18" s="3">
-        <v>4677</v>
+        <v>4615</v>
       </c>
       <c r="W18" s="3" t="e">
-        <f>$B18/(#REF!*R$32)</f>
+        <f>$B18/(#REF!*R$31)</f>
         <v>#REF!</v>
       </c>
       <c r="X18" s="3">
-        <v>12.91</v>
+        <v>12.01</v>
       </c>
       <c r="Y18" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>12000000</v>
       </c>
       <c r="D19" s="3">
-        <v>7.84551E-3</v>
-      </c>
-      <c r="E19" s="3">
-        <v>20.95</v>
+        <v>8.1435699999999993E-3</v>
       </c>
       <c r="F19" s="4">
-        <v>3190</v>
-      </c>
-      <c r="G19" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G19" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>2.9832935560859188</v>
-      </c>
-      <c r="H19" s="3">
-        <v>13.34</v>
-      </c>
-      <c r="I19" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="3" t="e">
         <f t="shared" si="1"/>
-        <v>1.9504549522673031</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1.102446E-2</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="M19" s="3">
-        <v>4753</v>
-      </c>
-      <c r="N19" s="3" t="e">
-        <f>$B19/(#REF!*J$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="3">
-        <v>13.09</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P19" s="3" t="e">
         <f t="shared" si="2"/>
@@ -1412,33 +1484,40 @@
       <c r="R19" s="4">
         <v>12000000</v>
       </c>
-      <c r="V19" s="3">
-        <v>4615</v>
-      </c>
-      <c r="W19" s="3" t="e">
-        <f>$B19/(#REF!*R$32)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X19" s="3">
-        <v>12.01</v>
-      </c>
       <c r="Y19" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="D20" s="3">
-        <v>8.1435699999999993E-3</v>
-      </c>
-      <c r="I20" s="3" t="e">
+        <v>4.6831299999999998E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10.73</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3377</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9123951537744643</v>
+      </c>
+      <c r="H20" s="3">
+        <v>10.47</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
+        <v>2.2731875194159676</v>
+      </c>
+      <c r="N20" s="3" t="e">
+        <f>$B20/(L20*J$31)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="3" t="e">
@@ -1448,255 +1527,352 @@
       <c r="R20" s="4">
         <v>12000000</v>
       </c>
+      <c r="W20" s="3" t="e">
+        <f>$B20/(U20*R$31)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="Y20" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="D21" s="3">
-        <v>4.6831299999999998E-3</v>
+        <v>1.0161750000000001E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>10.73</v>
+        <v>21.48</v>
       </c>
       <c r="F21" s="4">
         <v>3377</v>
       </c>
       <c r="G21" s="3">
-        <f>$B21/(E21*C$32)</f>
-        <v>2.9123951537744643</v>
+        <f t="shared" si="0"/>
+        <v>2.9096834264432028</v>
       </c>
       <c r="H21" s="3">
-        <v>10.47</v>
+        <v>11.53</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2731875194159676</v>
-      </c>
-      <c r="N21" s="3" t="e">
-        <f>$B21/(L21*J$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="I21:I26" si="6">D21/E21/C$31*1000000000</f>
+        <v>2.4639562965549349</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1.4060425521743573E-2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>4797</v>
       </c>
       <c r="R21" s="4">
         <v>12000000</v>
       </c>
-      <c r="W21" s="3" t="e">
-        <f>$B21/(U21*R$32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="V21" s="3">
+        <v>4584</v>
+      </c>
+      <c r="X21" s="3">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.0161750000000001E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>21.48</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3377</v>
-      </c>
-      <c r="G22" s="3">
-        <f>$B22/(E22*C$32)</f>
-        <v>2.9096834264432028</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" ref="I22:I27" si="6">D22/E22/C$32*1000000000</f>
-        <v>2.4639562965549349</v>
+        <v>6000000</v>
+      </c>
+      <c r="G22" s="3" t="e">
+        <f t="shared" ref="G22:G26" si="7">$B22/(E22*C$31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="R22" s="4">
         <v>12000000</v>
       </c>
       <c r="V22" s="3">
-        <v>4584</v>
+        <v>4826</v>
       </c>
       <c r="X22" s="3">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B23" s="4">
+        <v>6000000</v>
+      </c>
       <c r="G23" s="3" t="e">
-        <f t="shared" ref="G23:G29" si="7">$B23/(E23*C$32)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K23" s="3">
+        <v>1.3015476142278246E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>4617</v>
+      </c>
+      <c r="O23" s="3">
+        <v>13.77</v>
+      </c>
       <c r="R23" s="4">
         <v>12000000</v>
       </c>
       <c r="V23" s="3">
-        <v>4826</v>
+        <v>4406</v>
       </c>
       <c r="X23" s="3">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3" t="e">
+      <c r="B24" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2.1749669999999999E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="3" t="e">
+        <v>1.4124293785310735</v>
+      </c>
+      <c r="I24" s="3">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>4406</v>
-      </c>
-      <c r="X24" s="3">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>2.5599894067796605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="4">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
       <c r="D25" s="3">
-        <v>2.1749669999999999E-2</v>
+        <v>1.000349E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>44.25</v>
+        <v>14.5</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="7"/>
-        <v>1.4124293785310735</v>
+        <v>2.1551724137931036</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="6"/>
-        <v>2.5599894067796605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>3.5932076149425289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="4">
         <v>6000000</v>
       </c>
-      <c r="D26" s="3">
-        <v>1.000349E-2</v>
+      <c r="D26" s="7">
+        <v>1.170236E-2</v>
       </c>
       <c r="E26" s="3">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="7"/>
-        <v>2.1551724137931036</v>
+        <v>1.4204545454545454</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="6"/>
-        <v>3.5932076149425289</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>2.7704450757575758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="4">
-        <v>6000000</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1.170236E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>22</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4204545454545454</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="6"/>
-        <v>2.7704450757575758</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D27" s="3">
         <v>6.1450599999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
         <v>192000</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="J31" s="3">
+        <v>11961779</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
-        <v>28</v>
-      </c>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1704,151 +1880,259 @@
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F22">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G29">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H22">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I27">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E22">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K21">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L21">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M21">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:Q21">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W21">
+  <conditionalFormatting sqref="M15:M20 M4:M13">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F21">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G28">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I26">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D21">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E21">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N20">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K20">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L20">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O20">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:Q20">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W20">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T20">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U20">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V20">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X20">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y20">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:G65">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1860,55 +2144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T21">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U21">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V21">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X21">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y21">
+  <conditionalFormatting sqref="I48">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1920,8 +2156,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="D51:D76">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E68">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70731B8D-5833-9C49-B171-916AEF0CD5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{089E836D-6B90-4FD3-A5F9-AF33541403B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20540" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -135,9 +136,6 @@
     <t>Proposal 1 + ANDXOR</t>
   </si>
   <si>
-    <t>Cache 1 word</t>
-  </si>
-  <si>
     <t>Proposal 2 (proposal 1 + all DSP + 1 word cache)</t>
   </si>
   <si>
@@ -150,16 +148,28 @@
     <t>Proposal 1 + all DSPs</t>
   </si>
   <si>
-    <t>Proposal 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cache 1w 1c init </t>
-  </si>
-  <si>
-    <t>Cache 4w delayed</t>
-  </si>
-  <si>
-    <t>Comp</t>
+    <t>Cache 1w 1c init + DSPs + branch predictor</t>
+  </si>
+  <si>
+    <t>Cache 4w + DSPs + branch predictor</t>
+  </si>
+  <si>
+    <t>Cache 4w 1c init + DSPs + branch predictor</t>
+  </si>
+  <si>
+    <t>all DSPs (v2) + branch predictor</t>
+  </si>
+  <si>
+    <t>Cache 1 word (v3) + branch predictor</t>
+  </si>
+  <si>
+    <t>low frequency + branch predictor</t>
+  </si>
+  <si>
+    <t>Cache 4w 1c + DSPs + branch predictor</t>
+  </si>
+  <si>
+    <t>cache 1w + all DSPs + branch predictor</t>
   </si>
 </sst>
 </file>
@@ -169,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,12 +209,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -227,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -237,15 +241,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,68 +559,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4"/>
     <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
     <col min="10" max="10" width="11" style="3"/>
     <col min="11" max="11" width="22" style="3" customWidth="1"/>
     <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.33203125" style="3" customWidth="1"/>
-    <col min="16" max="17" width="17.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
+    <col min="16" max="17" width="17.875" style="3" customWidth="1"/>
     <col min="18" max="19" width="11" style="4"/>
     <col min="20" max="22" width="11" style="3"/>
-    <col min="23" max="23" width="18.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="18.625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="18.375" style="3" customWidth="1"/>
     <col min="25" max="25" width="21" style="3" customWidth="1"/>
     <col min="26" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -682,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -699,40 +701,43 @@
         <v>3238</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G21" si="0">$B4/(E4*C$31)</f>
+        <f>$B4/(E4*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I20" si="1">D4/E4/C$31*1000000000</f>
+        <f>D4/E4/C$34*1000000000</f>
         <v>2.0575157345442956</v>
       </c>
       <c r="N4" s="3" t="e">
-        <f>$B4/(L4*J$31)</f>
+        <f>$B4/(L4*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="3" t="e">
-        <f t="shared" ref="P4:P20" si="2">K4/L4/J$31*1000000000</f>
+        <f>K4/L4/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="4">
         <v>6000000</v>
       </c>
+      <c r="T4" s="3">
+        <v>6.1450599999999999E-3</v>
+      </c>
       <c r="V4" s="3">
         <v>4632</v>
       </c>
       <c r="W4" s="3" t="e">
-        <f>$B4/(U4*R$31)</f>
+        <f>$B4/(U4*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X4" s="3">
         <v>12.14</v>
       </c>
       <c r="Y4" s="3" t="e">
-        <f t="shared" ref="Y4:Y20" si="3">T4/U4/R$31*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <f>#REF!/U4/R$34*1000000000</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -749,43 +754,43 @@
         <v>3238</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
+        <f>$B5/(E5*C$34)</f>
         <v>2.9832935560859188</v>
       </c>
       <c r="H5" s="3">
         <v>12.56</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="1"/>
+        <f>D5/E5/C$34*1000000000</f>
         <v>1.9529335719968179</v>
       </c>
       <c r="M5" s="3">
         <v>4682</v>
       </c>
       <c r="N5" s="3" t="e">
-        <f>$B5/(L5*J$31)</f>
+        <f>$B5/(L5*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="3">
         <v>11.88</v>
       </c>
       <c r="P5" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K5/L5/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="4">
         <v>12000000</v>
       </c>
       <c r="W5" s="3" t="e">
-        <f>$B5/(U5*R$31)</f>
+        <f>$B5/(U5*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T5/U5/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,11 +807,11 @@
         <v>3270</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f>$B6/(E6*C$34)</f>
         <v>2.9861442904921165</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="1"/>
+        <f>D6/E6/C$34*1000000000</f>
         <v>2.1046096114030894</v>
       </c>
       <c r="K6" s="3">
@@ -815,30 +820,30 @@
       <c r="M6" s="3">
         <v>4719</v>
       </c>
-      <c r="N6" s="3">
-        <f>$B6/(L17*J$31)</f>
-        <v>0.50820428596976253</v>
+      <c r="N6" s="3" t="e">
+        <f>$B6/(L6*J$34)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O6" s="3">
         <v>11.86</v>
       </c>
       <c r="P6" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K6/L6/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="4">
         <v>12000000</v>
       </c>
       <c r="W6" s="3" t="e">
-        <f>$B6/(U17*R$31)</f>
+        <f>$B6/(U17*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y6" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T6/U6/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -855,11 +860,11 @@
         <v>3270</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>$B7/(E7*C$34)</f>
         <v>2.979027645376549</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f>D7/E7/C$34*1000000000</f>
         <v>1.9866043056879568</v>
       </c>
       <c r="K7" s="3">
@@ -868,30 +873,30 @@
       <c r="M7" s="3">
         <v>4719</v>
       </c>
-      <c r="N7" s="3">
-        <f>$B7/(L18*J$31)</f>
-        <v>0.50871970613808881</v>
+      <c r="N7" s="3" t="e">
+        <f>$B7/(L7*J$34)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O7" s="3">
         <v>12.18</v>
       </c>
       <c r="P7" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K7/L7/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R7" s="4">
         <v>12000000</v>
       </c>
       <c r="W7" s="3" t="e">
-        <f>$B7/(U18*R$31)</f>
+        <f>$B7/(U18*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y7" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T7/U7/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -908,34 +913,34 @@
         <v>3247</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>$B8/(E8*C$34)</f>
         <v>2.9961649089165867</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f>D8/E8/C$34*1000000000</f>
         <v>2.023709651645893</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f t="shared" ref="N8:N16" si="4">$B8/(L8*J$31)</f>
+        <f>$B8/(L8*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K8/L8/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="4">
         <v>12000000</v>
       </c>
       <c r="W8" s="3" t="e">
-        <f t="shared" ref="W8:W16" si="5">$B8/(U8*R$31)</f>
+        <f>$B8/(U8*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y8" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T8/U8/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -952,34 +957,34 @@
         <v>3222</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>$B9/(E9*C$34)</f>
         <v>3.0193236714975846</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f>D9/E9/C$34*1000000000</f>
         <v>2.0343246779388084</v>
       </c>
       <c r="N9" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B9/(L9*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K9/L9/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="4">
         <v>12000000</v>
       </c>
       <c r="W9" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B9/(U9*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y9" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>T9/U9/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -996,11 +1001,11 @@
         <v>3180</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
+        <f>$B10/(E10*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="1"/>
+        <f>D10/E10/C$34*1000000000</f>
         <v>2.2026669056724026</v>
       </c>
       <c r="K10" s="3">
@@ -1010,29 +1015,29 @@
         <v>4612</v>
       </c>
       <c r="N10" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B10/(L10*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="3">
         <v>13.18</v>
       </c>
       <c r="P10" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K10/L10/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="4">
         <v>12000000</v>
       </c>
       <c r="W10" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B10/(U10*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y10" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T10/U10/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1049,34 +1054,34 @@
         <v>3238</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
+        <f>$B11/(E11*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="1"/>
+        <f>D11/E11/C$34*1000000000</f>
         <v>2.2249243148502229</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B11/(L11*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K11/L11/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="4">
         <v>12000000</v>
       </c>
       <c r="W11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B11/(U11*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y11" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T11/U11/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1093,11 +1098,11 @@
         <v>3216</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>$B12/(E12*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f>D12/E12/C$34*1000000000</f>
         <v>1.929941443594646</v>
       </c>
       <c r="K12" s="3">
@@ -1107,29 +1112,32 @@
         <v>4647</v>
       </c>
       <c r="N12" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B12/(L12*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="3">
         <v>12.54</v>
       </c>
       <c r="P12" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K12/L12/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="4">
         <v>12000000</v>
       </c>
+      <c r="U12" s="3">
+        <v>5.4699999999999999E-2</v>
+      </c>
       <c r="W12" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <f>$B12/(#REF!*R$34)</f>
+        <v>#REF!</v>
       </c>
       <c r="Y12" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T12/#REF!/R$34*1000000000</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1146,11 +1154,11 @@
         <v>3238</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f>$B13/(E13*C$34)</f>
         <v>2.9861442904921165</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f>D13/E13/C$34*1000000000</f>
         <v>2.0572941551202417</v>
       </c>
       <c r="K13" s="3">
@@ -1160,29 +1168,29 @@
         <v>4664</v>
       </c>
       <c r="N13" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B13/(L13*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="3">
         <v>11.7</v>
       </c>
       <c r="P13" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K13/L13/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R13" s="4">
         <v>12000000</v>
       </c>
       <c r="W13" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B13/(U13*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T13/U13/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1199,11 +1207,11 @@
         <v>3246</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f>$B14/(E14*C$34)</f>
         <v>2.9932950191570882</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f>D14/E14/C$34*1000000000</f>
         <v>4.3402478448275854</v>
       </c>
       <c r="K14" s="3">
@@ -1213,29 +1221,29 @@
         <v>4675</v>
       </c>
       <c r="N14" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B14/(L14*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="3">
         <v>11.96</v>
       </c>
       <c r="P14" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K14/L14/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="4">
         <v>12000000</v>
       </c>
       <c r="W14" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B14/(U14*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y14" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T14/U14/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1252,40 +1260,40 @@
         <v>3238</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f>$B15/(E15*C$34)</f>
         <v>2.9932950191570882</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f>D15/E15/C$34*1000000000</f>
         <v>749.04214559386992</v>
       </c>
       <c r="M15" s="3">
         <v>4682</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B15/(L15*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="3">
         <v>11.86</v>
       </c>
       <c r="P15" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K15/L15/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="4">
         <v>12000000</v>
       </c>
       <c r="W15" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B15/(U15*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y15" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T15/U15/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1299,34 +1307,34 @@
         <v>3000</v>
       </c>
       <c r="G16" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>$B16/(E16*C$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>D16/E16/C$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f>$B16/(L16*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K16/L16/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="4">
         <v>12000000</v>
       </c>
       <c r="W16" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f>$B16/(U16*R$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y16" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T16/U16/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1343,14 +1351,14 @@
         <v>3252</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f>$B17/(E17*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="H17" s="3">
         <v>12.13</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
+        <f>D17/E17/C$34*1000000000</f>
         <v>1.8574380576800509</v>
       </c>
       <c r="K17" s="3">
@@ -1362,15 +1370,15 @@
       <c r="M17" s="3">
         <v>4818</v>
       </c>
-      <c r="N17" s="3" t="e">
-        <f>$B17/(#REF!*J$31)</f>
-        <v>#REF!</v>
+      <c r="N17" s="3">
+        <f>$B17/(L17*J$34)</f>
+        <v>1.0164085719395251</v>
       </c>
       <c r="O17" s="3">
         <v>13.94</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="2"/>
+        <f>K17/L17/J$34*1000000000</f>
         <v>0.90801452679217787</v>
       </c>
       <c r="R17" s="4">
@@ -1380,18 +1388,18 @@
         <v>4677</v>
       </c>
       <c r="W17" s="3" t="e">
-        <f>$B17/(#REF!*R$31)</f>
+        <f>$B17/(#REF!*R$34)</f>
         <v>#REF!</v>
       </c>
       <c r="X17" s="3">
         <v>12.91</v>
       </c>
       <c r="Y17" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+        <f>T17/U17/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1408,14 +1416,14 @@
         <v>3190</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f>$B18/(E18*C$34)</f>
         <v>2.9832935560859188</v>
       </c>
       <c r="H18" s="3">
         <v>13.34</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f>D18/E18/C$34*1000000000</f>
         <v>1.9504549522673031</v>
       </c>
       <c r="K18" s="3">
@@ -1427,15 +1435,15 @@
       <c r="M18" s="3">
         <v>4753</v>
       </c>
-      <c r="N18" s="3" t="e">
-        <f>$B18/(#REF!*J$31)</f>
-        <v>#REF!</v>
+      <c r="N18" s="3">
+        <f>$B18/(L18*J$34)</f>
+        <v>1.0174394122761776</v>
       </c>
       <c r="O18" s="3">
         <v>13.09</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="2"/>
+        <f>K18/L18/J$34*1000000000</f>
         <v>0.93472667525518593</v>
       </c>
       <c r="R18" s="4">
@@ -1445,18 +1453,18 @@
         <v>4615</v>
       </c>
       <c r="W18" s="3" t="e">
-        <f>$B18/(#REF!*R$31)</f>
+        <f>$B18/(#REF!*R$34)</f>
         <v>#REF!</v>
       </c>
       <c r="X18" s="3">
         <v>12.01</v>
       </c>
       <c r="Y18" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+        <f>T18/U18/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1470,116 +1478,98 @@
         <v>3000</v>
       </c>
       <c r="G19" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f>$B19/(E19*C$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f>D19/E19/C$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f>$B19/(L19*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f>K19/L19/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="4">
         <v>12000000</v>
       </c>
       <c r="Y19" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <f>T19/U19/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="D20" s="3">
-        <v>4.6831299999999998E-3</v>
+        <v>1.0161750000000001E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>10.73</v>
+        <v>21.48</v>
       </c>
       <c r="F20" s="4">
         <v>3377</v>
       </c>
       <c r="G20" s="3">
+        <f>$B20/(E20*C$34)</f>
+        <v>2.9096834264432028</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11.53</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" ref="I20:I29" si="0">D20/E20/C$34*1000000000</f>
+        <v>2.4639562965549349</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.4060425521743573E-2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>4797</v>
+      </c>
+      <c r="R20" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="V20" s="3">
+        <v>4584</v>
+      </c>
+      <c r="X20" s="3">
+        <v>11.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="G21" s="3" t="e">
+        <f>$B21/(E21*C$34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="3" t="e">
         <f t="shared" si="0"/>
-        <v>2.9123951537744643</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10.47</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2731875194159676</v>
-      </c>
-      <c r="N20" s="3" t="e">
-        <f>$B20/(L20*J$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W20" s="3" t="e">
-        <f>$B20/(U20*R$31)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y20" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.0161750000000001E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>21.48</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3377</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>2.9096834264432028</v>
-      </c>
-      <c r="H21" s="3">
-        <v>11.53</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" ref="I21:I26" si="6">D21/E21/C$31*1000000000</f>
-        <v>2.4639562965549349</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1.4060425521743573E-2</v>
-      </c>
-      <c r="M21" s="3">
-        <v>4797</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R21" s="4">
         <v>12000000</v>
       </c>
       <c r="V21" s="3">
-        <v>4584</v>
+        <v>4826</v>
       </c>
       <c r="X21" s="3">
-        <v>11.21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1587,292 +1577,446 @@
         <v>6000000</v>
       </c>
       <c r="G22" s="3" t="e">
-        <f t="shared" ref="G22:G26" si="7">$B22/(E22*C$31)</f>
+        <f>$B22/(E22*C$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.3015476142278246E-2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>4617</v>
+      </c>
+      <c r="O22" s="3">
+        <v>13.77</v>
       </c>
       <c r="R22" s="4">
         <v>12000000</v>
       </c>
       <c r="V22" s="3">
-        <v>4826</v>
+        <v>4406</v>
       </c>
       <c r="X22" s="3">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>14.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.1749669999999999E-2</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44.25</v>
+      </c>
+      <c r="G23" s="3">
+        <f>$B23/(E23*C$34)</f>
+        <v>1.4124293785310735</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5599894067796605</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>6000000</v>
       </c>
-      <c r="G23" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1.3015476142278246E-2</v>
-      </c>
-      <c r="M23" s="8">
-        <v>4617</v>
-      </c>
-      <c r="O23" s="3">
-        <v>13.77</v>
-      </c>
-      <c r="R23" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V23" s="3">
-        <v>4406</v>
-      </c>
-      <c r="X23" s="3">
-        <v>14.28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>1.000349E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G24" s="3">
+        <f>$B24/(E24*C$34)</f>
+        <v>2.1551724137931036</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5932076149425289</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="M24" s="3">
+        <v>4845</v>
+      </c>
+      <c r="O24" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B24" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2.1749669999999999E-2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44.25</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4124293785310735</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="6"/>
-        <v>2.5599894067796605</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>6000000</v>
       </c>
       <c r="D25" s="3">
-        <v>1.000349E-2</v>
+        <v>1.170236E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="7"/>
-        <v>2.1551724137931036</v>
+        <f>$B25/(E25*C$34)</f>
+        <v>1.4204545454545454</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="6"/>
-        <v>3.5932076149425289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2.7704450757575758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>6000000</v>
       </c>
-      <c r="D26" s="7">
-        <v>1.170236E-2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4204545454545454</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="6"/>
-        <v>2.7704450757575758</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="e">
+        <f t="shared" ref="G26:G29" si="1">$B26/(E26*C$34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5269</v>
+      </c>
+      <c r="O26" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="G27" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.379</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4661</v>
+      </c>
+      <c r="O27" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="V27" s="3">
+        <v>4477</v>
+      </c>
+      <c r="X27" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="3">
-        <v>6.1450599999999999E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B28" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4.6831299999999998E-3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>10.73</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3427</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9123951537744643</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2731875194159676</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.502</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5006</v>
+      </c>
+      <c r="N28" s="3">
+        <f>$B28/(L28*J$34)</f>
+        <v>0.99919846663776024</v>
+      </c>
+      <c r="O28" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="P28" s="3">
+        <f>K28/L28/J$34*1000000000</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="U28" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="V28" s="3">
+        <v>4812</v>
+      </c>
+      <c r="W28" s="3" t="e">
+        <f>$B28/(U28*R$34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X28" s="3">
+        <v>121</v>
+      </c>
+      <c r="Y28" s="3" t="e">
+        <f>T28/U28/R$34*1000000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.74</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3285</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8512773722627736</v>
+      </c>
+      <c r="H29" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4838</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="V29" s="3">
+        <v>4634</v>
+      </c>
+      <c r="X29" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="M30" s="3">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C34" s="3">
         <v>192000</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J34" s="3">
         <v>11961779</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="3" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="3" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="3" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="3" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="3" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="3" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1880,19 +2024,19 @@
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M15:M20 M4:M13">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="V4">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1904,7 +2048,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="F4:F14">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I29">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E29">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G68">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1916,211 +2132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F21">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G28">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H21">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I26">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D21">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E21">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N20">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K20">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L20">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O20">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:Q20">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W20">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T20">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U20">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V20">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X20">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y20">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48:G65">
+  <conditionalFormatting sqref="I51">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2132,7 +2144,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="D54:D79">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2144,7 +2156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="E55:E71">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2156,7 +2168,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D76">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2168,7 +2180,151 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E52:E68">
+  <conditionalFormatting sqref="M4:M30">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N19 N28">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K19 K28">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L30 U12">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O19 O28">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:Q28 P4:Q19">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W19 W28">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T5:T19 T28">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U11 U28 U13:U19">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V19 V28">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X19 X28">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y19 Y28">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2180,7 +2336,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
+  <conditionalFormatting sqref="F15:F29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2189,6 +2345,18 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{089E836D-6B90-4FD3-A5F9-AF33541403B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC07AEA-B58D-42D9-B819-B128201FFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -562,7 +561,7 @@
   <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -701,19 +700,19 @@
         <v>3238</v>
       </c>
       <c r="G4" s="3">
-        <f>$B4/(E4*C$34)</f>
+        <f t="shared" ref="G4:G25" si="0">$B4/(E4*C$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="I4" s="3">
-        <f>D4/E4/C$34*1000000000</f>
+        <f t="shared" ref="I4:I19" si="1">D4/E4/C$34*1000000000</f>
         <v>2.0575157345442956</v>
       </c>
       <c r="N4" s="3" t="e">
-        <f>$B4/(L4*J$34)</f>
+        <f t="shared" ref="N4:N19" si="2">$B4/(L4*J$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" s="3" t="e">
-        <f>K4/L4/J$34*1000000000</f>
+        <f t="shared" ref="P4:P19" si="3">K4/L4/J$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R4" s="4">
@@ -754,28 +753,28 @@
         <v>3238</v>
       </c>
       <c r="G5" s="3">
-        <f>$B5/(E5*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9832935560859188</v>
       </c>
       <c r="H5" s="3">
         <v>12.56</v>
       </c>
       <c r="I5" s="3">
-        <f>D5/E5/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9529335719968179</v>
       </c>
       <c r="M5" s="3">
         <v>4682</v>
       </c>
       <c r="N5" s="3" t="e">
-        <f>$B5/(L5*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="3">
         <v>11.88</v>
       </c>
       <c r="P5" s="3" t="e">
-        <f>K5/L5/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R5" s="4">
@@ -786,7 +785,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="3" t="e">
-        <f>T5/U5/R$34*1000000000</f>
+        <f t="shared" ref="Y5:Y11" si="4">T5/U5/R$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -807,11 +806,11 @@
         <v>3270</v>
       </c>
       <c r="G6" s="3">
-        <f>$B6/(E6*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
       <c r="I6" s="3">
-        <f>D6/E6/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.1046096114030894</v>
       </c>
       <c r="K6" s="3">
@@ -821,14 +820,14 @@
         <v>4719</v>
       </c>
       <c r="N6" s="3" t="e">
-        <f>$B6/(L6*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O6" s="3">
         <v>11.86</v>
       </c>
       <c r="P6" s="3" t="e">
-        <f>K6/L6/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R6" s="4">
@@ -839,7 +838,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y6" s="3" t="e">
-        <f>T6/U6/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -860,11 +859,11 @@
         <v>3270</v>
       </c>
       <c r="G7" s="3">
-        <f>$B7/(E7*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.979027645376549</v>
       </c>
       <c r="I7" s="3">
-        <f>D7/E7/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9866043056879568</v>
       </c>
       <c r="K7" s="3">
@@ -874,14 +873,14 @@
         <v>4719</v>
       </c>
       <c r="N7" s="3" t="e">
-        <f>$B7/(L7*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" s="3">
         <v>12.18</v>
       </c>
       <c r="P7" s="3" t="e">
-        <f>K7/L7/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R7" s="4">
@@ -892,7 +891,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y7" s="3" t="e">
-        <f>T7/U7/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -913,19 +912,19 @@
         <v>3247</v>
       </c>
       <c r="G8" s="3">
-        <f>$B8/(E8*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9961649089165867</v>
       </c>
       <c r="I8" s="3">
-        <f>D8/E8/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.023709651645893</v>
       </c>
       <c r="N8" s="3" t="e">
-        <f>$B8/(L8*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" s="3" t="e">
-        <f>K8/L8/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="4">
@@ -936,7 +935,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y8" s="3" t="e">
-        <f>T8/U8/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -957,19 +956,19 @@
         <v>3222</v>
       </c>
       <c r="G9" s="3">
-        <f>$B9/(E9*C$34)</f>
+        <f t="shared" si="0"/>
         <v>3.0193236714975846</v>
       </c>
       <c r="I9" s="3">
-        <f>D9/E9/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.0343246779388084</v>
       </c>
       <c r="N9" s="3" t="e">
-        <f>$B9/(L9*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P9" s="3" t="e">
-        <f>K9/L9/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R9" s="4">
@@ -980,7 +979,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y9" s="3" t="e">
-        <f>T9/U9/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1001,11 +1000,11 @@
         <v>3180</v>
       </c>
       <c r="G10" s="3">
-        <f>$B10/(E10*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="I10" s="3">
-        <f>D10/E10/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.2026669056724026</v>
       </c>
       <c r="K10" s="3">
@@ -1015,14 +1014,14 @@
         <v>4612</v>
       </c>
       <c r="N10" s="3" t="e">
-        <f>$B10/(L10*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="3">
         <v>13.18</v>
       </c>
       <c r="P10" s="3" t="e">
-        <f>K10/L10/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R10" s="4">
@@ -1033,7 +1032,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y10" s="3" t="e">
-        <f>T10/U10/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1054,19 +1053,19 @@
         <v>3238</v>
       </c>
       <c r="G11" s="3">
-        <f>$B11/(E11*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="I11" s="3">
-        <f>D11/E11/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.2249243148502229</v>
       </c>
       <c r="N11" s="3" t="e">
-        <f>$B11/(L11*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" s="3" t="e">
-        <f>K11/L11/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R11" s="4">
@@ -1077,7 +1076,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y11" s="3" t="e">
-        <f>T11/U11/R$34*1000000000</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1098,11 +1097,11 @@
         <v>3216</v>
       </c>
       <c r="G12" s="3">
-        <f>$B12/(E12*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="I12" s="3">
-        <f>D12/E12/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.929941443594646</v>
       </c>
       <c r="K12" s="3">
@@ -1112,14 +1111,14 @@
         <v>4647</v>
       </c>
       <c r="N12" s="3" t="e">
-        <f>$B12/(L12*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="3">
         <v>12.54</v>
       </c>
       <c r="P12" s="3" t="e">
-        <f>K12/L12/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R12" s="4">
@@ -1154,11 +1153,11 @@
         <v>3238</v>
       </c>
       <c r="G13" s="3">
-        <f>$B13/(E13*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
       <c r="I13" s="3">
-        <f>D13/E13/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.0572941551202417</v>
       </c>
       <c r="K13" s="3">
@@ -1168,14 +1167,14 @@
         <v>4664</v>
       </c>
       <c r="N13" s="3" t="e">
-        <f>$B13/(L13*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="3">
         <v>11.7</v>
       </c>
       <c r="P13" s="3" t="e">
-        <f>K13/L13/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R13" s="4">
@@ -1186,7 +1185,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y13" s="3" t="e">
-        <f>T13/U13/R$34*1000000000</f>
+        <f t="shared" ref="Y13:Y19" si="5">T13/U13/R$34*1000000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1207,11 +1206,11 @@
         <v>3246</v>
       </c>
       <c r="G14" s="3">
-        <f>$B14/(E14*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
       <c r="I14" s="3">
-        <f>D14/E14/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.3402478448275854</v>
       </c>
       <c r="K14" s="3">
@@ -1221,14 +1220,14 @@
         <v>4675</v>
       </c>
       <c r="N14" s="3" t="e">
-        <f>$B14/(L14*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="3">
         <v>11.96</v>
       </c>
       <c r="P14" s="3" t="e">
-        <f>K14/L14/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R14" s="4">
@@ -1239,7 +1238,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y14" s="3" t="e">
-        <f>T14/U14/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1260,25 +1259,25 @@
         <v>3238</v>
       </c>
       <c r="G15" s="3">
-        <f>$B15/(E15*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
       <c r="I15" s="3">
-        <f>D15/E15/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>749.04214559386992</v>
       </c>
       <c r="M15" s="3">
         <v>4682</v>
       </c>
       <c r="N15" s="3" t="e">
-        <f>$B15/(L15*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="3">
         <v>11.86</v>
       </c>
       <c r="P15" s="3" t="e">
-        <f>K15/L15/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R15" s="4">
@@ -1289,7 +1288,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y15" s="3" t="e">
-        <f>T15/U15/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1307,19 +1306,19 @@
         <v>3000</v>
       </c>
       <c r="G16" s="3" t="e">
-        <f>$B16/(E16*C$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="3" t="e">
-        <f>D16/E16/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="3" t="e">
-        <f>$B16/(L16*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="3" t="e">
-        <f>K16/L16/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="4">
@@ -1330,7 +1329,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Y16" s="3" t="e">
-        <f>T16/U16/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1351,14 +1350,14 @@
         <v>3252</v>
       </c>
       <c r="G17" s="3">
-        <f>$B17/(E17*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="H17" s="3">
         <v>12.13</v>
       </c>
       <c r="I17" s="3">
-        <f>D17/E17/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.8574380576800509</v>
       </c>
       <c r="K17" s="3">
@@ -1371,14 +1370,14 @@
         <v>4818</v>
       </c>
       <c r="N17" s="3">
-        <f>$B17/(L17*J$34)</f>
+        <f t="shared" si="2"/>
         <v>1.0164085719395251</v>
       </c>
       <c r="O17" s="3">
         <v>13.94</v>
       </c>
       <c r="P17" s="3">
-        <f>K17/L17/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>0.90801452679217787</v>
       </c>
       <c r="R17" s="4">
@@ -1395,7 +1394,7 @@
         <v>12.91</v>
       </c>
       <c r="Y17" s="3" t="e">
-        <f>T17/U17/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1416,14 +1415,14 @@
         <v>3190</v>
       </c>
       <c r="G18" s="3">
-        <f>$B18/(E18*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9832935560859188</v>
       </c>
       <c r="H18" s="3">
         <v>13.34</v>
       </c>
       <c r="I18" s="3">
-        <f>D18/E18/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9504549522673031</v>
       </c>
       <c r="K18" s="3">
@@ -1436,14 +1435,14 @@
         <v>4753</v>
       </c>
       <c r="N18" s="3">
-        <f>$B18/(L18*J$34)</f>
+        <f t="shared" si="2"/>
         <v>1.0174394122761776</v>
       </c>
       <c r="O18" s="3">
         <v>13.09</v>
       </c>
       <c r="P18" s="3">
-        <f>K18/L18/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>0.93472667525518593</v>
       </c>
       <c r="R18" s="4">
@@ -1460,7 +1459,7 @@
         <v>12.01</v>
       </c>
       <c r="Y18" s="3" t="e">
-        <f>T18/U18/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1478,26 +1477,26 @@
         <v>3000</v>
       </c>
       <c r="G19" s="3" t="e">
-        <f>$B19/(E19*C$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I19" s="3" t="e">
-        <f>D19/E19/C$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="3" t="e">
-        <f>$B19/(L19*J$34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="3" t="e">
-        <f>K19/L19/J$34*1000000000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R19" s="4">
         <v>12000000</v>
       </c>
       <c r="Y19" s="3" t="e">
-        <f>T19/U19/R$34*1000000000</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1518,14 +1517,14 @@
         <v>3377</v>
       </c>
       <c r="G20" s="3">
-        <f>$B20/(E20*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9096834264432028</v>
       </c>
       <c r="H20" s="3">
         <v>11.53</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I29" si="0">D20/E20/C$34*1000000000</f>
+        <f t="shared" ref="I20:I29" si="6">D20/E20/C$34*1000000000</f>
         <v>2.4639562965549349</v>
       </c>
       <c r="K20" s="3">
@@ -1552,11 +1551,11 @@
         <v>6000000</v>
       </c>
       <c r="G21" s="3" t="e">
-        <f>$B21/(E21*C$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="4">
@@ -1577,11 +1576,11 @@
         <v>6000000</v>
       </c>
       <c r="G22" s="3" t="e">
-        <f>$B22/(E22*C$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="3">
@@ -1616,12 +1615,15 @@
       <c r="E23" s="3">
         <v>44.25</v>
       </c>
+      <c r="F23" s="4">
+        <v>3714</v>
+      </c>
       <c r="G23" s="3">
-        <f>$B23/(E23*C$34)</f>
+        <f t="shared" si="0"/>
         <v>1.4124293785310735</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.5599894067796605</v>
       </c>
     </row>
@@ -1638,12 +1640,15 @@
       <c r="E24" s="3">
         <v>14.5</v>
       </c>
+      <c r="F24" s="4">
+        <v>3302</v>
+      </c>
       <c r="G24" s="3">
-        <f>$B24/(E24*C$34)</f>
+        <f t="shared" si="0"/>
         <v>2.1551724137931036</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>3.5932076149425289</v>
       </c>
       <c r="L24" s="3">
@@ -1669,12 +1674,15 @@
       <c r="E25" s="3">
         <v>22</v>
       </c>
+      <c r="F25" s="4">
+        <v>3708</v>
+      </c>
       <c r="G25" s="3">
-        <f>$B25/(E25*C$34)</f>
+        <f t="shared" si="0"/>
         <v>1.4204545454545454</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.7704450757575758</v>
       </c>
     </row>
@@ -1685,12 +1693,15 @@
       <c r="B26" s="4">
         <v>6000000</v>
       </c>
+      <c r="F26" s="4">
+        <v>3715</v>
+      </c>
       <c r="G26" s="3" t="e">
-        <f t="shared" ref="G26:G29" si="1">$B26/(E26*C$34)</f>
+        <f t="shared" ref="G26:G29" si="7">$B26/(E26*C$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L26" s="3">
@@ -1710,12 +1721,15 @@
       <c r="B27" s="4">
         <v>6000000</v>
       </c>
+      <c r="F27" s="4">
+        <v>3116</v>
+      </c>
       <c r="G27" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L27" s="3">
@@ -1754,14 +1768,14 @@
         <v>3427</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.9123951537744643</v>
       </c>
       <c r="H28" s="3">
         <v>12.9</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2.2731875194159676</v>
       </c>
       <c r="L28" s="3">
@@ -1816,14 +1830,14 @@
         <v>3285</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.8512773722627736</v>
       </c>
       <c r="H29" s="3">
         <v>13.2</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L29" s="3">
@@ -1848,6 +1862,9 @@
       </c>
       <c r="B30" s="3">
         <v>6000000</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3295</v>
       </c>
       <c r="L30" s="3">
         <v>0.745</v>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC07AEA-B58D-42D9-B819-B128201FFE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF9D1C-719A-4779-A3A2-89BD66BA1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>USE_CORRELATING</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>cache 1w + all DSPs + branch predictor</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>normalized - less is better, 1 is baseline</t>
   </si>
 </sst>
 </file>
@@ -230,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -243,6 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,37 +571,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="4"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11" style="3"/>
-    <col min="11" max="11" width="22" style="3" customWidth="1"/>
-    <col min="12" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="19.375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="17.875" style="3" customWidth="1"/>
-    <col min="18" max="19" width="11" style="4"/>
-    <col min="20" max="22" width="11" style="3"/>
-    <col min="23" max="23" width="18.625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="18.375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="21" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="11" style="3"/>
+    <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11" style="3"/>
+    <col min="14" max="14" width="18.375" style="3" customWidth="1"/>
+    <col min="15" max="16" width="11" style="3"/>
+    <col min="17" max="17" width="19.375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.875" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.25" style="3" customWidth="1"/>
+    <col min="23" max="24" width="11" style="3"/>
+    <col min="25" max="25" width="13.75" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9.125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9.625" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="D1" s="7" t="s">
         <v>17</v>
@@ -598,28 +618,37 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="7" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -643,47 +672,59 @@
       <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="R2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -707,36 +748,60 @@
         <f t="shared" ref="I4:I19" si="1">D4/E4/C$34*1000000000</f>
         <v>2.0575157345442956</v>
       </c>
-      <c r="N4" s="3" t="e">
-        <f t="shared" ref="N4:N19" si="2">$B4/(L4*J$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="3" t="e">
-        <f t="shared" ref="P4:P19" si="3">K4/L4/J$34*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="4">
-        <v>6000000</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="J4" s="3">
+        <f>1/(1/(F4/F$4))</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <f>1/(1/(E$4/E4))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <f>1/(1/(D4/D$4))</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="P4" s="8">
+        <f>F4+1570</f>
+        <v>4808</v>
+      </c>
+      <c r="R4" s="3">
+        <f>1/(1/(P4/P$4))</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <f>1/(1/(O$4/O4))</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="e">
+        <f>1/(1/(N4/N$4))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="3">
         <v>6.1450599999999999E-3</v>
       </c>
-      <c r="V4" s="3">
+      <c r="X4" s="3">
         <v>4632</v>
       </c>
-      <c r="W4" s="3" t="e">
-        <f>$B4/(U4*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>12.14</v>
       </c>
-      <c r="Y4" s="3" t="e">
-        <f>#REF!/U4/R$34*1000000000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" s="3">
+        <f>1/(1/(X4/X$4))</f>
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3" t="e">
+        <f>1/(1/(W$4/W4))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>1/(1/(V4/V$4))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -763,33 +828,57 @@
         <f t="shared" si="1"/>
         <v>1.9529335719968179</v>
       </c>
-      <c r="M5" s="3">
+      <c r="J5" s="3">
+        <f t="shared" ref="J5:J29" si="2">1/(1/(F5/F$4))</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" ref="K5:K29" si="3">1/(1/(E$4/E5))</f>
+        <v>0.49928400954653951</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L29" si="4">1/(1/(D5/D$4))</f>
+        <v>1.9010636109531358</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="P5" s="3">
         <v>4682</v>
       </c>
-      <c r="N5" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="Q5" s="3">
         <v>11.88</v>
       </c>
-      <c r="P5" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W5" s="3" t="e">
-        <f>$B5/(U5*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y5" s="3" t="e">
-        <f t="shared" ref="Y5:Y11" si="4">T5/U5/R$34*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R29" si="5">1/(1/(P5/P$4))</f>
+        <v>0.97379367720465893</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5:S29" si="6">1/(1/(O$4/O5))</f>
+        <v>0.50101010101010102</v>
+      </c>
+      <c r="T5" s="3" t="e">
+        <f t="shared" ref="T5:T29" si="7">1/(1/(N5/N$4))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="8">
+        <f>F5+1370</f>
+        <v>4608</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5:Z29" si="8">1/(1/(X5/X$4))</f>
+        <v>0.99481865284974103</v>
+      </c>
+      <c r="AA5" s="3" t="e">
+        <f t="shared" ref="AA5:AA29" si="9">1/(1/(W$4/W5))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="3" t="e">
+        <f t="shared" ref="AB5:AB29" si="10">1/(1/(V5/V$4))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -813,36 +902,60 @@
         <f t="shared" si="1"/>
         <v>2.1046096114030894</v>
       </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0098826436071648</v>
+      </c>
       <c r="K6" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9995222169135215</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0233776605399125</v>
+      </c>
+      <c r="N6" s="3">
         <v>6.4248233134858359E-3</v>
       </c>
-      <c r="M6" s="3">
+      <c r="O6" s="3">
+        <v>0.498</v>
+      </c>
+      <c r="P6" s="3">
         <v>4719</v>
       </c>
-      <c r="N6" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="3">
         <v>11.86</v>
       </c>
-      <c r="P6" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W6" s="3" t="e">
-        <f>$B6/(U17*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98148918469217972</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99598393574297173</v>
+      </c>
+      <c r="T6" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" ref="X6:X16" si="11">F6+1370</f>
+        <v>4640</v>
+      </c>
+      <c r="Z6" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0017271157167531</v>
+      </c>
+      <c r="AA6" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB6" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -866,36 +979,60 @@
         <f t="shared" si="1"/>
         <v>1.9866043056879568</v>
       </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0098826436071648</v>
+      </c>
       <c r="K7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9971401334604385</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.96830463560132118</v>
+      </c>
+      <c r="N7" s="3">
         <v>6.4716965999714335E-3</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
+        <v>0.495</v>
+      </c>
+      <c r="P7" s="3">
         <v>4719</v>
       </c>
-      <c r="N7" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="Q7" s="3">
         <v>12.18</v>
       </c>
-      <c r="P7" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W7" s="3" t="e">
-        <f>$B7/(U18*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y7" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R7" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98148918469217972</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="6"/>
+        <v>1.002020202020202</v>
+      </c>
+      <c r="T7" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X7" s="8">
+        <f t="shared" si="11"/>
+        <v>4640</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0017271157167531</v>
+      </c>
+      <c r="AA7" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -919,27 +1056,55 @@
         <f t="shared" si="1"/>
         <v>2.023709651645893</v>
       </c>
-      <c r="N8" s="3" t="e">
+      <c r="J8" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" s="3" t="e">
+        <v>1.0027794935145151</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R8" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W8" s="3" t="e">
-        <f>$B8/(U8*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y8" s="3" t="e">
+        <v>1.00287631831256</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.98074852074585861</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.499</v>
+      </c>
+      <c r="P8" s="8">
+        <f>F8+1570</f>
+        <v>4817</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0018718801996673</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9939879759519038</v>
+      </c>
+      <c r="T8" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X8" s="8">
+        <f t="shared" si="11"/>
+        <v>4617</v>
+      </c>
+      <c r="Z8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99676165803108818</v>
+      </c>
+      <c r="AA8" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB8" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,27 +1128,55 @@
         <f t="shared" si="1"/>
         <v>2.0343246779388084</v>
       </c>
-      <c r="N9" s="3" t="e">
+      <c r="J9" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="3" t="e">
+        <v>0.99505867819641758</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R9" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W9" s="3" t="e">
-        <f>$B9/(U9*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y9" s="3" t="e">
+        <v>1.0106280193236716</v>
+      </c>
+      <c r="L9" s="3">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.97833089311859456</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.499</v>
+      </c>
+      <c r="P9" s="8">
+        <f>F9+1570</f>
+        <v>4792</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99667221297836939</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9939879759519038</v>
+      </c>
+      <c r="T9" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="11"/>
+        <v>4592</v>
+      </c>
+      <c r="Z9" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99136442141623482</v>
+      </c>
+      <c r="AA9" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB9" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,36 +1200,60 @@
         <f t="shared" si="1"/>
         <v>2.2026669056724026</v>
       </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98208770846201343</v>
+      </c>
       <c r="K10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0705468097721524</v>
+      </c>
+      <c r="N10" s="3">
         <v>6.7523845665014553E-3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="P10" s="3">
         <v>4612</v>
       </c>
-      <c r="N10" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>13.18</v>
       </c>
-      <c r="P10" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R10" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W10" s="3" t="e">
-        <f>$B10/(U10*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y10" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R10" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95923460898502511</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" si="11"/>
+        <v>4550</v>
+      </c>
+      <c r="Z10" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98229706390328164</v>
+      </c>
+      <c r="AA10" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB10" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1060,27 +1277,52 @@
         <f t="shared" si="1"/>
         <v>2.2249243148502229</v>
       </c>
-      <c r="N11" s="3" t="e">
+      <c r="J11" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R11" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W11" s="3" t="e">
-        <f>$B11/(U11*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y11" s="3" t="e">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1.0813644228791308</v>
+      </c>
+      <c r="P11" s="8">
+        <f>F11+1570</f>
+        <v>4808</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="11"/>
+        <v>4608</v>
+      </c>
+      <c r="Z11" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99481865284974103</v>
+      </c>
+      <c r="AA11" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB11" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1104,39 +1346,63 @@
         <f t="shared" si="1"/>
         <v>1.929941443594646</v>
       </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99320568252007424</v>
+      </c>
       <c r="K12" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.93799595852038287</v>
+      </c>
+      <c r="N12" s="3">
         <v>6.3008904232331516E-3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
+        <v>0.497</v>
+      </c>
+      <c r="P12" s="3">
         <v>4647</v>
       </c>
-      <c r="N12" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>12.54</v>
       </c>
-      <c r="P12" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="R12" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96651414309484185</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.99798792756539245</v>
+      </c>
+      <c r="T12" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="3">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="W12" s="3" t="e">
-        <f>$B12/(#REF!*R$34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y12" s="3" t="e">
-        <f>T12/#REF!/R$34*1000000000</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X12" s="8">
+        <f t="shared" si="11"/>
+        <v>4586</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99006908462867016</v>
+      </c>
+      <c r="AA12" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB12" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1160,36 +1426,60 @@
         <f t="shared" si="1"/>
         <v>2.0572941551202417</v>
       </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
       <c r="K13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9995222169135215</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0003702672942656</v>
+      </c>
+      <c r="N13" s="3">
         <v>6.6413290983351886E-3</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
+        <v>0.496</v>
+      </c>
+      <c r="P13" s="3">
         <v>4664</v>
       </c>
-      <c r="N13" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="Q13" s="3">
         <v>11.7</v>
       </c>
-      <c r="P13" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R13" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W13" s="3" t="e">
-        <f>$B13/(U13*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y13" s="3" t="e">
-        <f t="shared" ref="Y13:Y19" si="5">T13/U13/R$34*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="R13" s="3">
+        <f t="shared" si="5"/>
+        <v>0.9700499168053246</v>
+      </c>
+      <c r="S13" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X13" s="8">
+        <f t="shared" si="11"/>
+        <v>4608</v>
+      </c>
+      <c r="Z13" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99481865284974103</v>
+      </c>
+      <c r="AA13" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB13" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1213,36 +1503,60 @@
         <f t="shared" si="1"/>
         <v>4.3402478448275854</v>
       </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0024706609017913</v>
+      </c>
       <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5028735632183909</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="4"/>
+        <v>1.403617971274034</v>
+      </c>
+      <c r="N14" s="3">
         <v>1.7847086379895957E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
+        <v>1.31</v>
+      </c>
+      <c r="P14" s="3">
         <v>4675</v>
       </c>
-      <c r="N14" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>11.96</v>
       </c>
-      <c r="P14" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R14" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W14" s="3" t="e">
-        <f>$B14/(U14*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="3" t="e">
+      <c r="R14" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.97233777038269564</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.37862595419847328</v>
+      </c>
+      <c r="T14" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="11"/>
+        <v>4616</v>
+      </c>
+      <c r="Z14" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99654576856649402</v>
+      </c>
+      <c r="AA14" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB14" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1266,33 +1580,54 @@
         <f t="shared" si="1"/>
         <v>749.04214559386992</v>
       </c>
-      <c r="M15" s="3">
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="3"/>
+        <v>601.14942528735639</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6055927301767845</v>
+      </c>
+      <c r="P15" s="3">
         <v>4682</v>
       </c>
-      <c r="N15" s="3" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>11.86</v>
       </c>
-      <c r="P15" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R15" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W15" s="3" t="e">
-        <f>$B15/(U15*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y15" s="3" t="e">
+      <c r="R15" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.97379367720465893</v>
+      </c>
+      <c r="S15" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="8">
+        <f t="shared" si="11"/>
+        <v>4608</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99481865284974103</v>
+      </c>
+      <c r="AA15" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB15" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1303,7 +1638,7 @@
         <v>1.1715339999999999E-2</v>
       </c>
       <c r="F16" s="4">
-        <v>3000</v>
+        <v>3239</v>
       </c>
       <c r="G16" s="3" t="e">
         <f t="shared" si="0"/>
@@ -1313,27 +1648,55 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="3" t="e">
+      <c r="J16" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="3" t="e">
+        <v>1.0003088326127239</v>
+      </c>
+      <c r="K16" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R16" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="W16" s="3" t="e">
-        <f>$B16/(U16*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="3" t="e">
+      <c r="L16" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8351681328122162</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="P16" s="8">
+        <f>F16+1570</f>
+        <v>4809</v>
+      </c>
+      <c r="R16" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+        <v>1.000207986688852</v>
+      </c>
+      <c r="S16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66133333333333333</v>
+      </c>
+      <c r="T16" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X16" s="8">
+        <f t="shared" si="11"/>
+        <v>4609</v>
+      </c>
+      <c r="Z16" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99503454231433519</v>
+      </c>
+      <c r="AA16" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB16" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1360,45 +1723,62 @@
         <f t="shared" si="1"/>
         <v>1.8574380576800509</v>
       </c>
+      <c r="J17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0043236565781346</v>
+      </c>
       <c r="K17" s="3">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8055152886511863</v>
+      </c>
+      <c r="N17" s="3">
         <v>1.072027E-2</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>0.98699999999999999</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>4818</v>
       </c>
-      <c r="N17" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0164085719395251</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>13.94</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="3"/>
-        <v>0.90801452679217787</v>
-      </c>
-      <c r="R17" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="R17" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0020798668885191</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.50253292806484295</v>
+      </c>
+      <c r="T17" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X17" s="3">
         <v>4677</v>
       </c>
-      <c r="W17" s="3" t="e">
-        <f>$B17/(#REF!*R$34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12.91</v>
       </c>
-      <c r="Y17" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0097150259067358</v>
+      </c>
+      <c r="AA17" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB17" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1425,45 +1805,62 @@
         <f t="shared" si="1"/>
         <v>1.9504549522673031</v>
       </c>
+      <c r="J18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98517603458925262</v>
+      </c>
       <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.49928400954653951</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8986508234212214</v>
+      </c>
+      <c r="N18" s="3">
         <v>1.102446E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>0.98599999999999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>4753</v>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0174394122761776</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>13.09</v>
       </c>
-      <c r="P18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.93472667525518593</v>
-      </c>
-      <c r="R18" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="R18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.98856073211314466</v>
+      </c>
+      <c r="S18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.50304259634888437</v>
+      </c>
+      <c r="T18" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X18" s="3">
         <v>4615</v>
       </c>
-      <c r="W18" s="3" t="e">
-        <f>$B18/(#REF!*R$34)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12.01</v>
       </c>
-      <c r="Y18" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="3">
+        <f t="shared" si="8"/>
+        <v>0.99632987910189974</v>
+      </c>
+      <c r="AA18" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB18" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1484,23 +1881,52 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="3" t="e">
+      <c r="J19" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="3" t="e">
+        <v>0.92649783817171105</v>
+      </c>
+      <c r="K19" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="Y19" s="3" t="e">
+      <c r="L19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9707827644204585</v>
+      </c>
+      <c r="P19" s="8">
+        <f>F19+1570</f>
+        <v>4570</v>
+      </c>
+      <c r="R19" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.95049916805324453</v>
+      </c>
+      <c r="S19" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X19" s="8">
+        <f t="shared" ref="X19" si="12">F19+1370</f>
+        <v>4370</v>
+      </c>
+      <c r="Z19" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9434369602763385</v>
+      </c>
+      <c r="AA19" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB19" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1524,26 +1950,62 @@
         <v>11.53</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20:I29" si="6">D20/E20/C$34*1000000000</f>
+        <f t="shared" ref="I20:I29" si="13">D20/E20/C$34*1000000000</f>
         <v>2.4639562965549349</v>
       </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0429277331686226</v>
+      </c>
       <c r="K20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.48696461824953446</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4591919460813378</v>
+      </c>
+      <c r="N20" s="3">
         <v>1.4060425521743573E-2</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
+        <v>0.999</v>
+      </c>
+      <c r="P20" s="3">
         <v>4797</v>
       </c>
-      <c r="R20" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="R20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.99771214642262884</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.49649649649649646</v>
+      </c>
+      <c r="T20" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X20" s="3">
         <v>4584</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>11.21</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98963730569948172</v>
+      </c>
+      <c r="AA20" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB20" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -1555,20 +2017,54 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I21" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="R21" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R21" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="T21" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="3">
         <v>4826</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>11.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0418825561312608</v>
+      </c>
+      <c r="AA21" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB21" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -1580,29 +2076,62 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I22" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1.3015476142278246E-2</v>
+      </c>
+      <c r="P22" s="3">
+        <v>4617</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>13.77</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96027454242928456</v>
+      </c>
+      <c r="S22" s="3" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="3">
-        <v>1.3015476142278246E-2</v>
-      </c>
-      <c r="M22" s="3">
-        <v>4617</v>
-      </c>
-      <c r="O22" s="3">
-        <v>13.77</v>
-      </c>
-      <c r="R22" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="T22" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X22" s="3">
         <v>4406</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>14.28</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95120898100172702</v>
+      </c>
+      <c r="AA22" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB22" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -1623,11 +2152,55 @@
         <v>1.4124293785310735</v>
       </c>
       <c r="I23" s="3">
+        <f t="shared" si="13"/>
+        <v>2.5599894067796605</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1470043236565781</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>0.23638418079096046</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="4"/>
+        <v>5.2635238314194783</v>
+      </c>
+      <c r="P23" s="8">
+        <f>F23+1570</f>
+        <v>5284</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0990016638935107</v>
+      </c>
+      <c r="S23" s="3" t="e">
         <f t="shared" si="6"/>
-        <v>2.5599894067796605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X23" s="8">
+        <f t="shared" ref="X23" si="14">F23+1370</f>
+        <v>5084</v>
+      </c>
+      <c r="Z23" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0975820379965457</v>
+      </c>
+      <c r="AA23" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB23" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +2221,62 @@
         <v>2.1551724137931036</v>
       </c>
       <c r="I24" s="3">
+        <f t="shared" si="13"/>
+        <v>3.5932076149425289</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0197652872143299</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="3"/>
+        <v>0.72137931034482761</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="4"/>
+        <v>2.4208922715777499</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4845</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="R24" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0076955074875209</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="6"/>
-        <v>3.5932076149425289</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="M24" s="3">
-        <v>4845</v>
-      </c>
-      <c r="O24" s="3">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.59330143540669855</v>
+      </c>
+      <c r="T24" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="X24" s="3">
+        <v>4661</v>
+      </c>
+      <c r="Z24" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0062607944732298</v>
+      </c>
+      <c r="AA24" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB24" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -1682,11 +2297,57 @@
         <v>1.4204545454545454</v>
       </c>
       <c r="I25" s="3">
+        <f t="shared" si="13"/>
+        <v>2.7704450757575758</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1451513279802348</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47545454545454557</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="4"/>
+        <v>2.832026910930145</v>
+      </c>
+      <c r="P25" s="8">
+        <f>F25+1570</f>
+        <v>5278</v>
+      </c>
+      <c r="R25" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0977537437603992</v>
+      </c>
+      <c r="S25" s="3" t="e">
         <f t="shared" si="6"/>
-        <v>2.7704450757575758</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="X25" s="3">
+        <v>5078</v>
+      </c>
+      <c r="Z25" s="3">
+        <f t="shared" si="8"/>
+        <v>1.096286701208981</v>
+      </c>
+      <c r="AA25" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB25" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1697,24 +2358,66 @@
         <v>3715</v>
       </c>
       <c r="G26" s="3" t="e">
-        <f t="shared" ref="G26:G29" si="7">$B26/(E26*C$34)</f>
+        <f t="shared" ref="G26:G29" si="15">$B26/(E26*C$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I26" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="2"/>
+        <v>1.147313156269302</v>
+      </c>
+      <c r="K26" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="P26" s="3">
+        <v>5269</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0958818635607321</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="M26" s="3">
-        <v>5269</v>
-      </c>
-      <c r="O26" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>0.66936572199730093</v>
+      </c>
+      <c r="T26" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="3">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="X26" s="3">
+        <v>5085</v>
+      </c>
+      <c r="Z26" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0977979274611398</v>
+      </c>
+      <c r="AA26" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB26" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -1725,33 +2428,69 @@
         <v>3116</v>
       </c>
       <c r="G27" s="3" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96232242124768375</v>
+      </c>
+      <c r="K27" s="3" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.379</v>
+      </c>
+      <c r="P27" s="3">
+        <v>4661</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="5"/>
+        <v>0.96942595673876875</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3087071240105541</v>
+      </c>
+      <c r="T27" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.379</v>
-      </c>
-      <c r="M27" s="3">
-        <v>4661</v>
-      </c>
-      <c r="O27" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>0.124</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4477</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27" s="3">
+        <f t="shared" si="8"/>
+        <v>0.96653713298791022</v>
+      </c>
+      <c r="AA27" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB27" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -1768,55 +2507,72 @@
         <v>3427</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.9123951537744643</v>
       </c>
       <c r="H28" s="3">
         <v>12.9</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="13"/>
+        <v>2.2731875194159676</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0583693638048177</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.9748369058713886</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1333397867937998</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.502</v>
+      </c>
+      <c r="P28" s="3">
+        <v>5006</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0411813643926788</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="6"/>
-        <v>2.2731875194159676</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0.502</v>
-      </c>
-      <c r="M28" s="3">
-        <v>5006</v>
-      </c>
-      <c r="N28" s="3">
-        <f>$B28/(L28*J$34)</f>
-        <v>0.99919846663776024</v>
-      </c>
-      <c r="O28" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="P28" s="3">
-        <f>K28/L28/J$34*1000000000</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>12000000</v>
-      </c>
-      <c r="U28" s="3">
+        <v>0.98804780876494036</v>
+      </c>
+      <c r="T28" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W28" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="V28" s="3">
+      <c r="X28" s="3">
         <v>4812</v>
       </c>
-      <c r="W28" s="3" t="e">
-        <f>$B28/(U28*R$34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="3">
+      <c r="Y28" s="3">
         <v>121</v>
       </c>
-      <c r="Y28" s="3" t="e">
-        <f>T28/U28/R$34*1000000000</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0388601036269429</v>
+      </c>
+      <c r="AA28" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB28" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1830,33 +2586,69 @@
         <v>3285</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>2.8512773722627736</v>
       </c>
       <c r="H29" s="3">
         <v>13.2</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0145151327980235</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8175182481751824</v>
+      </c>
+      <c r="L29" s="3" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.124</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4838</v>
+      </c>
+      <c r="R29" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0062396006655574</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0.124</v>
-      </c>
-      <c r="M29" s="3">
-        <v>4838</v>
-      </c>
-      <c r="U29" s="3">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" s="3">
         <v>1.35E-2</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>4634</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0004317789291883</v>
+      </c>
+      <c r="AA29" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -1866,55 +2658,74 @@
       <c r="F30" s="4">
         <v>3295</v>
       </c>
-      <c r="L30" s="3">
+      <c r="O30" s="3">
         <v>0.745</v>
       </c>
-      <c r="M30" s="3">
+      <c r="P30" s="3">
         <v>4862</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="3">
         <v>192000</v>
       </c>
-      <c r="J34" s="3">
+      <c r="M34" s="3">
         <v>11961779</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="X34" s="8"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X35" s="8"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X37" s="8"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
@@ -2036,12 +2847,399 @@
       <c r="D79" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="R1:T1"/>
   </mergeCells>
-  <conditionalFormatting sqref="V4">
+  <conditionalFormatting sqref="X4">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F30">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L29">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E29">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G68">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:L51">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54:D79">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:E71">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:P30">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N19 N28">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W29 O4:O14 O16:O30">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q19 Q28">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V19 V28">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W11 W28 W13:W19">
+    <cfRule type="colorScale" priority="129">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X29">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y19 Y28">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F29 F15">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U19 U28">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:T51">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z51:AB51">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:T29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R29">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -2053,7 +3251,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14">
+  <conditionalFormatting sqref="S4:S29">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4:T29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2065,115 +3275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G31">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I29">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G68">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I51">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D79">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E71">
+  <conditionalFormatting sqref="Z4:AB29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2185,7 +3287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
+  <conditionalFormatting sqref="Z4:Z29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2197,151 +3299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M30">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N19 N28">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K19 K28">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L30 U12">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O19 O28">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28:Q28 P4:Q19">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W19 W28">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T19 T28">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U11 U28 U13:U19">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V19 V28">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X19 X28">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y19 Y28">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D29">
+  <conditionalFormatting sqref="AA4:AA29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2353,7 +3311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F29">
+  <conditionalFormatting sqref="AB4:AB29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2362,18 +3320,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCF9D1C-719A-4779-A3A2-89BD66BA1296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57EFC79-61FE-4B07-98BF-0FD845BDB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -782,6 +782,9 @@
       <c r="V4" s="3">
         <v>6.1450599999999999E-3</v>
       </c>
+      <c r="W4" s="3">
+        <v>5.3800000000000001E-2</v>
+      </c>
       <c r="X4" s="3">
         <v>4632</v>
       </c>
@@ -792,9 +795,9 @@
         <f>1/(1/(X4/X$4))</f>
         <v>1</v>
       </c>
-      <c r="AA4" s="3" t="e">
+      <c r="AA4" s="3">
         <f>1/(1/(W$4/W4))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="3">
         <f>1/(1/(V4/V$4))</f>
@@ -1393,9 +1396,9 @@
         <f t="shared" si="8"/>
         <v>0.99006908462867016</v>
       </c>
-      <c r="AA12" s="3" t="e">
+      <c r="AA12" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.98354661791590492</v>
       </c>
       <c r="AB12" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2267,9 +2270,9 @@
         <f t="shared" si="8"/>
         <v>1.0062607944732298</v>
       </c>
-      <c r="AA24" s="3" t="e">
+      <c r="AA24" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.0346153846153847</v>
       </c>
       <c r="AB24" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2338,9 +2341,9 @@
         <f t="shared" si="8"/>
         <v>1.096286701208981</v>
       </c>
-      <c r="AA25" s="3" t="e">
+      <c r="AA25" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.0346153846153847</v>
       </c>
       <c r="AB25" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2408,9 +2411,9 @@
         <f t="shared" si="8"/>
         <v>1.0977979274611398</v>
       </c>
-      <c r="AA26" s="3" t="e">
+      <c r="AA26" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.99629629629629635</v>
       </c>
       <c r="AB26" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2481,9 +2484,9 @@
         <f t="shared" si="8"/>
         <v>0.96653713298791022</v>
       </c>
-      <c r="AA27" s="3" t="e">
+      <c r="AA27" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.43387096774193551</v>
       </c>
       <c r="AB27" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2563,9 +2566,9 @@
         <f t="shared" si="8"/>
         <v>1.0388601036269429</v>
       </c>
-      <c r="AA28" s="3" t="e">
+      <c r="AA28" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>0.99629629629629635</v>
       </c>
       <c r="AB28" s="3" t="e">
         <f t="shared" si="10"/>
@@ -2639,9 +2642,9 @@
         <f t="shared" si="8"/>
         <v>1.0004317789291883</v>
       </c>
-      <c r="AA29" s="3" t="e">
+      <c r="AA29" s="3">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>3.9851851851851854</v>
       </c>
       <c r="AB29" s="3" t="e">
         <f t="shared" si="10"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57EFC79-61FE-4B07-98BF-0FD845BDB449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B05FA5E-8830-4911-B16E-311DF7590ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2427,24 +2427,27 @@
       <c r="B27" s="4">
         <v>6000000</v>
       </c>
+      <c r="E27" s="3">
+        <v>10.46</v>
+      </c>
       <c r="F27" s="4">
         <v>3116</v>
       </c>
-      <c r="G27" s="3" t="e">
+      <c r="G27" s="3">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="3" t="e">
+        <v>2.987571701720841</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="2"/>
         <v>0.96232242124768375</v>
       </c>
-      <c r="K27" s="3" t="e">
+      <c r="K27" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3" t="e">
         <f t="shared" si="4"/>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B05FA5E-8830-4911-B16E-311DF7590ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E6BE4B-4CF4-894C-BB08-7B6AB092316B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,14 +252,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,82 +573,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4"/>
-    <col min="3" max="3" width="9.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="4"/>
-    <col min="7" max="7" width="11.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="11.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="17" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" style="3" customWidth="1"/>
     <col min="13" max="13" width="11" style="3"/>
-    <col min="14" max="14" width="18.375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="3" customWidth="1"/>
     <col min="15" max="16" width="11" style="3"/>
-    <col min="17" max="17" width="19.375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17.875" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.25" style="3" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="31" style="3" customWidth="1"/>
+    <col min="21" max="21" width="17.83203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="3" customWidth="1"/>
     <col min="23" max="24" width="11" style="3"/>
-    <col min="25" max="25" width="13.75" style="3" customWidth="1"/>
-    <col min="26" max="26" width="10.375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9.125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="25.5" style="3" customWidth="1"/>
     <col min="29" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
       <c r="U1" s="6"/>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7" t="s">
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>31</v>
@@ -724,7 +724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -760,10 +760,13 @@
         <f>1/(1/(D4/D$4))</f>
         <v>1</v>
       </c>
+      <c r="N4" s="3">
+        <v>5.7149499999999999E-3</v>
+      </c>
       <c r="O4" s="3">
         <v>0.496</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f>F4+1570</f>
         <v>4808</v>
       </c>
@@ -775,9 +778,9 @@
         <f>1/(1/(O$4/O4))</f>
         <v>1</v>
       </c>
-      <c r="T4" s="3" t="e">
+      <c r="T4" s="3">
         <f>1/(1/(N4/N$4))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="V4" s="3">
         <v>6.1450599999999999E-3</v>
@@ -804,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -861,10 +864,10 @@
         <v>0.50101010101010102</v>
       </c>
       <c r="T5" s="3" t="e">
-        <f t="shared" ref="T5:T29" si="7">1/(1/(N5/N$4))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" s="8">
+        <f t="shared" ref="T5:T30" si="7">1/(1/(N5/N$4))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="7">
         <f>F5+1370</f>
         <v>4608</v>
       </c>
@@ -881,7 +884,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,7 +921,7 @@
         <v>1.0233776605399125</v>
       </c>
       <c r="N6" s="3">
-        <v>6.4248233134858359E-3</v>
+        <v>5.8759199999999998E-3</v>
       </c>
       <c r="O6" s="3">
         <v>0.498</v>
@@ -937,11 +940,11 @@
         <f t="shared" si="6"/>
         <v>0.99598393574297173</v>
       </c>
-      <c r="T6" s="3" t="e">
+      <c r="T6" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" s="8">
+        <v>1.028166475647206</v>
+      </c>
+      <c r="X6" s="7">
         <f t="shared" ref="X6:X16" si="11">F6+1370</f>
         <v>4640</v>
       </c>
@@ -958,7 +961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -995,7 +998,7 @@
         <v>0.96830463560132118</v>
       </c>
       <c r="N7" s="3">
-        <v>6.4716965999714335E-3</v>
+        <v>6.0764900000000004E-3</v>
       </c>
       <c r="O7" s="3">
         <v>0.495</v>
@@ -1014,11 +1017,11 @@
         <f t="shared" si="6"/>
         <v>1.002020202020202</v>
       </c>
-      <c r="T7" s="3" t="e">
+      <c r="T7" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" s="8">
+        <v>1.0632621457755538</v>
+      </c>
+      <c r="X7" s="7">
         <f t="shared" si="11"/>
         <v>4640</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1071,10 +1074,13 @@
         <f t="shared" si="4"/>
         <v>0.98074852074585861</v>
       </c>
+      <c r="N8" s="3">
+        <v>5.5741799999999998E-3</v>
+      </c>
       <c r="O8" s="3">
         <v>0.499</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f>F8+1570</f>
         <v>4817</v>
       </c>
@@ -1086,11 +1092,11 @@
         <f t="shared" si="6"/>
         <v>0.9939879759519038</v>
       </c>
-      <c r="T8" s="3" t="e">
+      <c r="T8" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" s="8">
+        <v>0.97536811345681063</v>
+      </c>
+      <c r="X8" s="7">
         <f t="shared" si="11"/>
         <v>4617</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,10 +1149,13 @@
         <f t="shared" si="4"/>
         <v>0.97833089311859456</v>
       </c>
+      <c r="N9" s="3">
+        <v>5.6631299999999997E-3</v>
+      </c>
       <c r="O9" s="3">
         <v>0.499</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f>F9+1570</f>
         <v>4792</v>
       </c>
@@ -1158,11 +1167,11 @@
         <f t="shared" si="6"/>
         <v>0.9939879759519038</v>
       </c>
-      <c r="T9" s="3" t="e">
+      <c r="T9" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" s="8">
+        <v>0.99093255409058678</v>
+      </c>
+      <c r="X9" s="7">
         <f t="shared" si="11"/>
         <v>4592</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>1.0705468097721524</v>
       </c>
       <c r="N10" s="3">
-        <v>6.7523845665014553E-3</v>
+        <v>5.8104000000000003E-3</v>
       </c>
       <c r="O10" s="3">
         <v>0.496</v>
@@ -1235,11 +1244,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T10" s="3" t="e">
+      <c r="T10" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X10" s="8">
+        <v>1.0167018084147719</v>
+      </c>
+      <c r="X10" s="7">
         <f t="shared" si="11"/>
         <v>4550</v>
       </c>
@@ -1256,7 +1265,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -1292,7 +1301,7 @@
         <f t="shared" si="4"/>
         <v>1.0813644228791308</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f>F11+1570</f>
         <v>4808</v>
       </c>
@@ -1308,7 +1317,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="7">
         <f t="shared" si="11"/>
         <v>4608</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>0.93799595852038287</v>
       </c>
       <c r="N12" s="3">
-        <v>6.3008904232331516E-3</v>
+        <v>5.6674300000000002E-3</v>
       </c>
       <c r="O12" s="3">
         <v>0.497</v>
@@ -1381,14 +1390,14 @@
         <f t="shared" si="6"/>
         <v>0.99798792756539245</v>
       </c>
-      <c r="T12" s="3" t="e">
+      <c r="T12" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.99168496662263028</v>
       </c>
       <c r="W12" s="3">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="7">
         <f t="shared" si="11"/>
         <v>4586</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +1451,7 @@
         <v>1.0003702672942656</v>
       </c>
       <c r="N13" s="3">
-        <v>6.6413290983351886E-3</v>
+        <v>5.5419199999999997E-3</v>
       </c>
       <c r="O13" s="3">
         <v>0.496</v>
@@ -1461,11 +1470,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T13" s="3" t="e">
+      <c r="T13" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" s="8">
+        <v>0.96972326966990097</v>
+      </c>
+      <c r="X13" s="7">
         <f t="shared" si="11"/>
         <v>4608</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>1.403617971274034</v>
       </c>
       <c r="N14" s="3">
-        <v>1.7847086379895957E-2</v>
+        <v>1.6313689999999999E-2</v>
       </c>
       <c r="O14" s="3">
         <v>1.31</v>
@@ -1538,11 +1547,11 @@
         <f t="shared" si="6"/>
         <v>0.37862595419847328</v>
       </c>
-      <c r="T14" s="3" t="e">
+      <c r="T14" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="8">
+        <v>2.8545639069458173</v>
+      </c>
+      <c r="X14" s="7">
         <f t="shared" si="11"/>
         <v>4616</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +1622,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="7">
         <f t="shared" si="11"/>
         <v>4608</v>
       </c>
@@ -1630,7 +1639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1663,10 +1672,13 @@
         <f t="shared" si="4"/>
         <v>2.8351681328122162</v>
       </c>
+      <c r="N16" s="3">
+        <v>2.8569339999999999E-2</v>
+      </c>
       <c r="O16" s="3">
         <v>0.75</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <f>F16+1570</f>
         <v>4809</v>
       </c>
@@ -1678,11 +1690,11 @@
         <f t="shared" si="6"/>
         <v>0.66133333333333333</v>
       </c>
-      <c r="T16" s="3" t="e">
+      <c r="T16" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="8">
+        <v>4.9990533600468945</v>
+      </c>
+      <c r="X16" s="7">
         <f t="shared" si="11"/>
         <v>4609</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>1.8055152886511863</v>
       </c>
       <c r="N17" s="3">
-        <v>1.072027E-2</v>
+        <v>1.1207190000000001E-2</v>
       </c>
       <c r="O17" s="3">
         <v>0.98699999999999999</v>
@@ -1758,9 +1770,9 @@
         <f t="shared" si="6"/>
         <v>0.50253292806484295</v>
       </c>
-      <c r="T17" s="3" t="e">
+      <c r="T17" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.9610302802299231</v>
       </c>
       <c r="X17" s="3">
         <v>4677</v>
@@ -1781,7 +1793,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1840,9 +1852,9 @@
         <f t="shared" si="6"/>
         <v>0.50304259634888437</v>
       </c>
-      <c r="T18" s="3" t="e">
+      <c r="T18" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1.929056247211262</v>
       </c>
       <c r="X18" s="3">
         <v>4615</v>
@@ -1863,7 +1875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +1908,7 @@
         <f t="shared" si="4"/>
         <v>1.9707827644204585</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <f>F19+1570</f>
         <v>4570</v>
       </c>
@@ -1912,7 +1924,7 @@
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="7">
         <f t="shared" ref="X19" si="12">F19+1370</f>
         <v>4370</v>
       </c>
@@ -1929,7 +1941,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>2.4591919460813378</v>
       </c>
       <c r="N20" s="3">
-        <v>1.4060425521743573E-2</v>
+        <v>1.196595E-2</v>
       </c>
       <c r="O20" s="3">
         <v>0.999</v>
@@ -1985,9 +1997,9 @@
         <f t="shared" si="6"/>
         <v>0.49649649649649646</v>
       </c>
-      <c r="T20" s="3" t="e">
+      <c r="T20" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.0937978460004025</v>
       </c>
       <c r="X20" s="3">
         <v>4584</v>
@@ -2008,7 +2020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -2035,7 +2047,7 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P21" s="8"/>
+      <c r="P21" s="7"/>
       <c r="R21" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
@@ -2067,7 +2079,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -2111,9 +2123,9 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T22" s="3" t="e">
+      <c r="T22" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.2774435720834383</v>
       </c>
       <c r="X22" s="3">
         <v>4406</v>
@@ -2134,7 +2146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -2170,7 +2182,10 @@
         <f t="shared" si="4"/>
         <v>5.2635238314194783</v>
       </c>
-      <c r="P23" s="8">
+      <c r="N23" s="3">
+        <v>1.6981360000000001E-2</v>
+      </c>
+      <c r="P23" s="7">
         <f>F23+1570</f>
         <v>5284</v>
       </c>
@@ -2182,11 +2197,11 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T23" s="3" t="e">
+      <c r="T23" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="8">
+        <v>2.971392575613085</v>
+      </c>
+      <c r="X23" s="7">
         <f t="shared" ref="X23" si="14">F23+1370</f>
         <v>5084</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2239,6 +2254,9 @@
         <f t="shared" si="4"/>
         <v>2.4208922715777499</v>
       </c>
+      <c r="N24" s="3">
+        <v>1.6318530000000001E-2</v>
+      </c>
       <c r="O24" s="3">
         <v>0.83599999999999997</v>
       </c>
@@ -2256,9 +2274,9 @@
         <f t="shared" si="6"/>
         <v>0.59330143540669855</v>
       </c>
-      <c r="T24" s="3" t="e">
+      <c r="T24" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>2.855410808493513</v>
       </c>
       <c r="W24" s="3">
         <v>5.1999999999999998E-2</v>
@@ -2279,7 +2297,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2333,7 @@
         <f t="shared" si="4"/>
         <v>2.832026910930145</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <f>F25+1570</f>
         <v>5278</v>
       </c>
@@ -2350,7 +2368,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -2453,6 +2471,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="N27" s="3">
+        <v>5.7009299999999999E-3</v>
+      </c>
       <c r="O27" s="3">
         <v>0.379</v>
       </c>
@@ -2470,9 +2491,12 @@
         <f t="shared" si="6"/>
         <v>1.3087071240105541</v>
       </c>
-      <c r="T27" s="3" t="e">
+      <c r="T27" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.99754678518622197</v>
+      </c>
+      <c r="V27" s="3">
+        <v>5.5029600000000003E-3</v>
       </c>
       <c r="W27" s="3">
         <v>0.124</v>
@@ -2491,12 +2515,12 @@
         <f t="shared" si="9"/>
         <v>0.43387096774193551</v>
       </c>
-      <c r="AB27" s="3" t="e">
+      <c r="AB27" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.89550956377968649</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2504,7 +2528,7 @@
         <v>6000000</v>
       </c>
       <c r="D28" s="3">
-        <v>4.6831299999999998E-3</v>
+        <v>4.2662300000000002E-3</v>
       </c>
       <c r="E28" s="3">
         <v>10.73</v>
@@ -2521,7 +2545,7 @@
       </c>
       <c r="I28" s="3">
         <f t="shared" si="13"/>
-        <v>2.2731875194159676</v>
+        <v>2.070824596147872</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="2"/>
@@ -2533,7 +2557,10 @@
       </c>
       <c r="L28" s="3">
         <f t="shared" si="4"/>
-        <v>1.1333397867937998</v>
+        <v>1.0324479992255848</v>
+      </c>
+      <c r="N28" s="3">
+        <v>5.6919700000000002E-3</v>
       </c>
       <c r="O28" s="3">
         <v>0.502</v>
@@ -2552,9 +2579,12 @@
         <f t="shared" si="6"/>
         <v>0.98804780876494036</v>
       </c>
-      <c r="T28" s="3" t="e">
+      <c r="T28" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.99597896744503456</v>
+      </c>
+      <c r="V28" s="3">
+        <v>6.7408499999999996E-3</v>
       </c>
       <c r="W28" s="3">
         <v>5.3999999999999999E-2</v>
@@ -2573,17 +2603,20 @@
         <f t="shared" si="9"/>
         <v>0.99629629629629635</v>
       </c>
-      <c r="AB28" s="3" t="e">
+      <c r="AB28" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1.0969543015039722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="4">
         <v>1500000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1.42286E-3</v>
       </c>
       <c r="E29" s="3">
         <v>2.74</v>
@@ -2600,7 +2633,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.7046456812652067</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="2"/>
@@ -2610,9 +2643,12 @@
         <f t="shared" si="3"/>
         <v>3.8175182481751824</v>
       </c>
-      <c r="L29" s="3" t="e">
+      <c r="L29" s="3">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.34433890347639845</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2.2368100000000001E-3</v>
       </c>
       <c r="O29" s="3">
         <v>0.124</v>
@@ -2628,9 +2664,12 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="T29" s="3" t="e">
+      <c r="T29" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.39139625018591589</v>
+      </c>
+      <c r="V29" s="3">
+        <v>2.2368100000000001E-3</v>
       </c>
       <c r="W29" s="3">
         <v>1.35E-2</v>
@@ -2649,12 +2688,12 @@
         <f t="shared" si="9"/>
         <v>3.9851851851851854</v>
       </c>
-      <c r="AB29" s="3" t="e">
+      <c r="AB29" s="3">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0.36400132789590339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -2664,23 +2703,30 @@
       <c r="F30" s="4">
         <v>3295</v>
       </c>
+      <c r="N30" s="3">
+        <v>1.545036E-2</v>
+      </c>
       <c r="O30" s="3">
         <v>0.745</v>
       </c>
       <c r="P30" s="3">
         <v>4862</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="P31" s="8"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="P32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T30" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7034987182740005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -2690,166 +2736,166 @@
       <c r="M34" s="3">
         <v>11961779</v>
       </c>
-      <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="X37" s="8"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X34" s="7"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X35" s="7"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X36" s="7"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X37" s="7"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G51" s="1"/>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
     </row>
   </sheetData>
@@ -2862,6 +2908,90 @@
     <mergeCell ref="R1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="X4">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F30">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G31">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L29">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D16">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E29">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G68">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -2873,7 +3003,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
+  <conditionalFormatting sqref="H51">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:L51">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -2885,67 +3027,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F30">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G31">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:L29">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D16">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E29">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G68">
+  <conditionalFormatting sqref="D54:D79">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2957,7 +3039,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
+  <conditionalFormatting sqref="E55:E71">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -2969,7 +3051,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51:L51">
+  <conditionalFormatting sqref="E54">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -2981,7 +3063,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:D79">
+  <conditionalFormatting sqref="P4:P30">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N19">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W29 O4:O14 O16:O30">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q19 Q28">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V19">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W11 W28 W13:W19">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X29">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y19 Y28">
+    <cfRule type="colorScale" priority="137">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D29">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -2993,7 +3171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E71">
+  <conditionalFormatting sqref="F17:F29 F15">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -3005,115 +3183,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P30">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N19 N28">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W29 O4:O14 O16:O30">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q19 Q28">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V19 V28">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W11 W28 W13:W19">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X29">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y19 Y28">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D29">
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U19 U28">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R51:T51">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -3125,43 +3219,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F29 F15">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U19 U28">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R51:T51">
+  <conditionalFormatting sqref="Z51:AB51">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -3173,7 +3243,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z51:AB51">
+  <conditionalFormatting sqref="J4:J29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K29">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -3185,7 +3267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
+  <conditionalFormatting sqref="L4:L29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -3197,7 +3279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J29">
+  <conditionalFormatting sqref="R4:T29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -3209,7 +3291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K29">
+  <conditionalFormatting sqref="R4:R29">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -3221,7 +3303,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L29">
+  <conditionalFormatting sqref="S4:S29">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -3233,7 +3315,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:T29">
+  <conditionalFormatting sqref="T4:T29">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -3245,43 +3327,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R4:R29">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S4:S29">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T4:T29">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AB29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z29">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4:AB29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3293,39 +3375,39 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z29">
+  <conditionalFormatting sqref="N37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA29">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB29">
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/verilog/hardware/processor/source/measurements.xlsx
+++ b/verilog/hardware/processor/source/measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sucha\programming\f-of-e-tools\verilog\hardware\processor\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcos/GB3/f-of-e-tools/verilog/hardware/processor/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4E9E70-A991-40DD-8B17-43B1F7231DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193DD1F5-E7D7-9B4D-8F80-51AE2153C716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{3AB65B1E-B0EA-0B4C-85B5-B5A4D7E13C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,43 +657,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5514D7BD-1B29-5548-99C9-D3A14905CC46}">
   <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="4"/>
-    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="62.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="17" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="36.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36.83203125" style="3" customWidth="1"/>
     <col min="14" max="14" width="11" style="3"/>
-    <col min="15" max="15" width="18.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="3" customWidth="1"/>
     <col min="16" max="17" width="11" style="3"/>
-    <col min="18" max="18" width="19.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="3" customWidth="1"/>
     <col min="21" max="21" width="31" style="3" customWidth="1"/>
-    <col min="22" max="22" width="17.875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="13.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17.83203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" style="3" customWidth="1"/>
     <col min="24" max="25" width="11" style="3"/>
-    <col min="26" max="26" width="13.625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9.125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="9.1640625" style="3" customWidth="1"/>
     <col min="29" max="29" width="25.5" style="3" customWidth="1"/>
     <col min="30" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C1" s="3"/>
       <c r="E1" s="8" t="s">
         <v>17</v>
@@ -733,7 +733,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -812,7 +812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -832,11 +832,11 @@
         <v>3238</v>
       </c>
       <c r="H4" s="3">
-        <f>$C4/(F4*D$34)</f>
+        <f t="shared" ref="H4:H25" si="0">$C4/(F4*D$34)</f>
         <v>2.987571701720841</v>
       </c>
       <c r="J4" s="3">
-        <f>E4/F4/D$34*1000000000</f>
+        <f t="shared" ref="J4:J29" si="1">E4/F4/D$34*1000000000</f>
         <v>2.0575157345442956</v>
       </c>
       <c r="K4" s="3">
@@ -844,11 +844,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="3">
-        <f>1/(1/(F$4/F4))</f>
+        <f t="shared" ref="L4:L29" si="2">1/(1/(F$4/F4))</f>
         <v>1</v>
       </c>
       <c r="M4" s="3">
-        <f>1/(1/(E4/E$4))</f>
+        <f t="shared" ref="M4:M29" si="3">1/(1/(E4/E$4))</f>
         <v>1</v>
       </c>
       <c r="O4" s="3">
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -918,26 +918,26 @@
         <v>3238</v>
       </c>
       <c r="H5" s="3">
-        <f>$C5/(F5*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9832935560859188</v>
       </c>
       <c r="I5" s="3">
         <v>12.56</v>
       </c>
       <c r="J5" s="3">
-        <f>E5/F5/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9529335719968179</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" ref="K5:K29" si="0">1/(1/(G5/G$4))</f>
+        <f t="shared" ref="K5:K29" si="4">1/(1/(G5/G$4))</f>
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <f>1/(1/(F$4/F5))</f>
+        <f t="shared" si="2"/>
         <v>0.49928400954653951</v>
       </c>
       <c r="M5" s="3">
-        <f>1/(1/(E5/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.9010636109531358</v>
       </c>
       <c r="P5" s="3">
@@ -950,15 +950,15 @@
         <v>11.88</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" ref="S5:S30" si="1">1/(1/(Q5/Q$4))</f>
+        <f t="shared" ref="S5:S30" si="5">1/(1/(Q5/Q$4))</f>
         <v>0.97379367720465893</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" ref="T5:T30" si="2">1/(1/(P$4/P5))</f>
+        <f t="shared" ref="T5:T30" si="6">1/(1/(P$4/P5))</f>
         <v>0.50101010101010102</v>
       </c>
       <c r="U5" s="3" t="e">
-        <f t="shared" ref="U5:U30" si="3">1/(1/(O5/O$4))</f>
+        <f t="shared" ref="U5:U30" si="7">1/(1/(O5/O$4))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y5" s="7">
@@ -966,19 +966,19 @@
         <v>4608</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" ref="AA5:AA30" si="4">1/(1/(Y5/Y$4))</f>
+        <f t="shared" ref="AA5:AA30" si="8">1/(1/(Y5/Y$4))</f>
         <v>0.99481865284974103</v>
       </c>
       <c r="AB5" s="3" t="e">
-        <f t="shared" ref="AB5:AB30" si="5">1/(1/(X$4/X5))</f>
+        <f t="shared" ref="AB5:AB30" si="9">1/(1/(X$4/X5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AC5" s="3" t="e">
-        <f t="shared" ref="AC5:AC30" si="6">1/(1/(W5/W$4))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" ref="AC5:AC30" si="10">1/(1/(W5/W$4))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -998,23 +998,23 @@
         <v>3270</v>
       </c>
       <c r="H6" s="3">
-        <f>$C6/(F6*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
       <c r="J6" s="3">
-        <f>E6/F6/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.1046096114030894</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0098826436071648</v>
       </c>
       <c r="L6" s="3">
-        <f>1/(1/(F$4/F6))</f>
+        <f t="shared" si="2"/>
         <v>0.9995222169135215</v>
       </c>
       <c r="M6" s="3">
-        <f>1/(1/(E6/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.0233776605399125</v>
       </c>
       <c r="O6" s="3">
@@ -1030,35 +1030,35 @@
         <v>11.86</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98148918469217972</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99598393574297173</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.028166475647206</v>
       </c>
       <c r="Y6" s="7">
-        <f t="shared" ref="Y6:Y16" si="7">G6+1370</f>
+        <f t="shared" ref="Y6:Y16" si="11">G6+1370</f>
         <v>4640</v>
       </c>
       <c r="AA6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0017271157167531</v>
       </c>
       <c r="AB6" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC6" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1078,23 +1078,23 @@
         <v>3270</v>
       </c>
       <c r="H7" s="3">
-        <f>$C7/(F7*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.979027645376549</v>
       </c>
       <c r="J7" s="3">
-        <f>E7/F7/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9866043056879568</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0098826436071648</v>
       </c>
       <c r="L7" s="3">
-        <f>1/(1/(F$4/F7))</f>
+        <f t="shared" si="2"/>
         <v>0.9971401334604385</v>
       </c>
       <c r="M7" s="3">
-        <f>1/(1/(E7/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.96830463560132118</v>
       </c>
       <c r="O7" s="3">
@@ -1110,35 +1110,35 @@
         <v>12.18</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98148918469217972</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.002020202020202</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.0632621457755538</v>
       </c>
       <c r="Y7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4640</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0017271157167531</v>
       </c>
       <c r="AB7" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC7" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1158,23 +1158,23 @@
         <v>3247</v>
       </c>
       <c r="H8" s="3">
-        <f>$C8/(F8*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9961649089165867</v>
       </c>
       <c r="J8" s="3">
-        <f>E8/F8/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.023709651645893</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0027794935145151</v>
       </c>
       <c r="L8" s="3">
-        <f>1/(1/(F$4/F8))</f>
+        <f t="shared" si="2"/>
         <v>1.00287631831256</v>
       </c>
       <c r="M8" s="3">
-        <f>1/(1/(E8/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.98074852074585861</v>
       </c>
       <c r="O8" s="3">
@@ -1188,35 +1188,35 @@
         <v>4817</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0018718801996673</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9939879759519038</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.97536811345681063</v>
       </c>
       <c r="Y8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4617</v>
       </c>
       <c r="AA8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99676165803108818</v>
       </c>
       <c r="AB8" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC8" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,23 +1236,23 @@
         <v>3222</v>
       </c>
       <c r="H9" s="3">
-        <f>$C9/(F9*D$34)</f>
+        <f t="shared" si="0"/>
         <v>3.0193236714975846</v>
       </c>
       <c r="J9" s="3">
-        <f>E9/F9/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.0343246779388084</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99505867819641758</v>
       </c>
       <c r="L9" s="3">
-        <f>1/(1/(F$4/F9))</f>
+        <f t="shared" si="2"/>
         <v>1.0106280193236716</v>
       </c>
       <c r="M9" s="3">
-        <f>1/(1/(E9/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.97833089311859456</v>
       </c>
       <c r="O9" s="3">
@@ -1266,35 +1266,35 @@
         <v>4792</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99667221297836939</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9939879759519038</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99093255409058678</v>
       </c>
       <c r="Y9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4592</v>
       </c>
       <c r="AA9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99136442141623482</v>
       </c>
       <c r="AB9" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC9" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1314,23 +1314,23 @@
         <v>3180</v>
       </c>
       <c r="H10" s="3">
-        <f>$C10/(F10*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="J10" s="3">
-        <f>E10/F10/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.2026669056724026</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98208770846201343</v>
       </c>
       <c r="L10" s="3">
-        <f>1/(1/(F$4/F10))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M10" s="3">
-        <f>1/(1/(E10/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.0705468097721524</v>
       </c>
       <c r="O10" s="3">
@@ -1346,71 +1346,71 @@
         <v>13.18</v>
       </c>
       <c r="S10" s="3">
+        <f t="shared" si="5"/>
+        <v>0.95923460898502511</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0167018084147719</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="11"/>
+        <v>4550</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="8"/>
+        <v>0.98229706390328164</v>
+      </c>
+      <c r="AB10" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC10" s="3" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6000000</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.4683600000000002E-3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10.46</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3238</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.987571701720841</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>0.95923460898502511</v>
-      </c>
-      <c r="T10" s="3">
+        <v>2.2249243148502229</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U10" s="3">
+      <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>1.0167018084147719</v>
-      </c>
-      <c r="Y10" s="7">
-        <f t="shared" si="7"/>
-        <v>4550</v>
-      </c>
-      <c r="AA10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.98229706390328164</v>
-      </c>
-      <c r="AB10" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC10" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6000000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.4683600000000002E-3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10.46</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3238</v>
-      </c>
-      <c r="H11" s="3">
-        <f>$C11/(F11*D$34)</f>
-        <v>2.987571701720841</v>
-      </c>
-      <c r="J11" s="3">
-        <f>E11/F11/D$34*1000000000</f>
-        <v>2.2249243148502229</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <f>1/(1/(F$4/F11))</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
-        <f>1/(1/(E11/E$4))</f>
         <v>1.0813644228791308</v>
       </c>
       <c r="Q11" s="7">
@@ -1418,35 +1418,35 @@
         <v>4808</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T11" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U11" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4608</v>
       </c>
       <c r="AA11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99481865284974103</v>
       </c>
       <c r="AB11" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC11" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1466,23 +1466,23 @@
         <v>3216</v>
       </c>
       <c r="H12" s="3">
-        <f>$C12/(F12*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="J12" s="3">
-        <f>E12/F12/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.929941443594646</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99320568252007424</v>
       </c>
       <c r="L12" s="3">
-        <f>1/(1/(F$4/F12))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M12" s="3">
-        <f>1/(1/(E12/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.93799595852038287</v>
       </c>
       <c r="O12" s="3">
@@ -1498,38 +1498,38 @@
         <v>12.54</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96651414309484185</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99798792756539245</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99168496662263028</v>
       </c>
       <c r="X12" s="3">
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="Y12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4586</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99006908462867016</v>
       </c>
       <c r="AB12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.98354661791590492</v>
       </c>
       <c r="AC12" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1549,23 +1549,23 @@
         <v>3238</v>
       </c>
       <c r="H13" s="3">
-        <f>$C13/(F13*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9861442904921165</v>
       </c>
       <c r="J13" s="3">
-        <f>E13/F13/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.0572941551202417</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L13" s="3">
-        <f>1/(1/(F$4/F13))</f>
+        <f t="shared" si="2"/>
         <v>0.9995222169135215</v>
       </c>
       <c r="M13" s="3">
-        <f>1/(1/(E13/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.0003702672942656</v>
       </c>
       <c r="O13" s="3">
@@ -1581,35 +1581,35 @@
         <v>11.7</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9700499168053246</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.96972326966990097</v>
       </c>
       <c r="Y13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4608</v>
       </c>
       <c r="AA13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99481865284974103</v>
       </c>
       <c r="AB13" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC13" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1629,23 +1629,23 @@
         <v>3246</v>
       </c>
       <c r="H14" s="3">
-        <f>$C14/(F14*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
       <c r="J14" s="3">
-        <f>E14/F14/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>4.3402478448275854</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0024706609017913</v>
       </c>
       <c r="L14" s="3">
-        <f>1/(1/(F$4/F14))</f>
+        <f t="shared" si="2"/>
         <v>1.5028735632183909</v>
       </c>
       <c r="M14" s="3">
-        <f>1/(1/(E14/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.403617971274034</v>
       </c>
       <c r="O14" s="3">
@@ -1661,35 +1661,35 @@
         <v>11.96</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97233777038269564</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37862595419847328</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8545639069458173</v>
       </c>
       <c r="Y14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4616</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99654576856649402</v>
       </c>
       <c r="AB14" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC14" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1709,23 +1709,23 @@
         <v>3238</v>
       </c>
       <c r="H15" s="3">
-        <f>$C15/(F15*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9932950191570882</v>
       </c>
       <c r="J15" s="3">
-        <f>E15/F15/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>749.04214559386992</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <f>1/(1/(F$4/F15))</f>
+        <f t="shared" si="2"/>
         <v>601.14942528735639</v>
       </c>
       <c r="M15" s="3">
-        <f>1/(1/(E15/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.6055927301767845</v>
       </c>
       <c r="Q15" s="3">
@@ -1735,35 +1735,35 @@
         <v>11.86</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97379367720465893</v>
       </c>
       <c r="T15" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U15" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4608</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99481865284974103</v>
       </c>
       <c r="AB15" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC15" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1780,23 +1780,23 @@
         <v>3239</v>
       </c>
       <c r="H16" s="3" t="e">
-        <f>$C16/(F16*D$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="3" t="e">
-        <f>E16/F16/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0003088326127239</v>
       </c>
       <c r="L16" s="3" t="e">
-        <f>1/(1/(F$4/F16))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="3">
-        <f>1/(1/(E16/E$4))</f>
+        <f t="shared" si="3"/>
         <v>2.8351681328122162</v>
       </c>
       <c r="O16" s="3">
@@ -1810,35 +1810,35 @@
         <v>4809</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.000207986688852</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.66133333333333333</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.9990533600468945</v>
       </c>
       <c r="Y16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4609</v>
       </c>
       <c r="AA16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99503454231433519</v>
       </c>
       <c r="AB16" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC16" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1858,26 +1858,26 @@
         <v>3252</v>
       </c>
       <c r="H17" s="3">
-        <f>$C17/(F17*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.987571701720841</v>
       </c>
       <c r="I17" s="3">
         <v>12.13</v>
       </c>
       <c r="J17" s="3">
-        <f>E17/F17/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.8574380576800509</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0043236565781346</v>
       </c>
       <c r="L17" s="3">
-        <f>1/(1/(F$4/F17))</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M17" s="3">
-        <f>1/(1/(E17/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.8055152886511863</v>
       </c>
       <c r="O17" s="3">
@@ -1893,15 +1893,15 @@
         <v>13.94</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0020798668885191</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50253292806484295</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.9610302802299231</v>
       </c>
       <c r="Y17" s="3">
@@ -1911,19 +1911,19 @@
         <v>12.91</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0097150259067358</v>
       </c>
       <c r="AB17" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC17" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
@@ -1943,26 +1943,26 @@
         <v>3190</v>
       </c>
       <c r="H18" s="3">
-        <f>$C18/(F18*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9832935560859188</v>
       </c>
       <c r="I18" s="3">
         <v>13.34</v>
       </c>
       <c r="J18" s="3">
-        <f>E18/F18/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>1.9504549522673031</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98517603458925262</v>
       </c>
       <c r="L18" s="3">
-        <f>1/(1/(F$4/F18))</f>
+        <f t="shared" si="2"/>
         <v>0.49928400954653951</v>
       </c>
       <c r="M18" s="3">
-        <f>1/(1/(E18/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.8986508234212214</v>
       </c>
       <c r="O18" s="3">
@@ -1978,15 +1978,15 @@
         <v>13.09</v>
       </c>
       <c r="S18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98856073211314466</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50304259634888437</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.929056247211262</v>
       </c>
       <c r="Y18" s="3">
@@ -1996,19 +1996,19 @@
         <v>12.01</v>
       </c>
       <c r="AA18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.99632987910189974</v>
       </c>
       <c r="AB18" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC18" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
@@ -2025,23 +2025,23 @@
         <v>3000</v>
       </c>
       <c r="H19" s="3" t="e">
-        <f>$C19/(F19*D$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="3" t="e">
-        <f>E19/F19/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.92649783817171105</v>
       </c>
       <c r="L19" s="3" t="e">
-        <f>1/(1/(F$4/F19))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="3">
-        <f>1/(1/(E19/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.9707827644204585</v>
       </c>
       <c r="Q19" s="7">
@@ -2049,35 +2049,35 @@
         <v>4570</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95049916805324453</v>
       </c>
       <c r="T19" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U19" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y19" s="7">
-        <f t="shared" ref="Y19" si="8">G19+1370</f>
+        <f t="shared" ref="Y19" si="12">G19+1370</f>
         <v>4370</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.9434369602763385</v>
       </c>
       <c r="AB19" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC19" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
@@ -2097,26 +2097,26 @@
         <v>3377</v>
       </c>
       <c r="H20" s="3">
-        <f>$C20/(F20*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.9096834264432028</v>
       </c>
       <c r="I20" s="3">
         <v>11.53</v>
       </c>
       <c r="J20" s="3">
-        <f>E20/F20/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.4639562965549349</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0429277331686226</v>
       </c>
       <c r="L20" s="3">
-        <f>1/(1/(F$4/F20))</f>
+        <f t="shared" si="2"/>
         <v>0.48696461824953446</v>
       </c>
       <c r="M20" s="3">
-        <f>1/(1/(E20/E$4))</f>
+        <f t="shared" si="3"/>
         <v>2.4591919460813378</v>
       </c>
       <c r="O20" s="3">
@@ -2129,15 +2129,15 @@
         <v>4797</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.99771214642262884</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.49649649649649646</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.0937978460004025</v>
       </c>
       <c r="Y20" s="3">
@@ -2147,19 +2147,19 @@
         <v>11.21</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.98963730569948172</v>
       </c>
       <c r="AB20" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC20" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>35</v>
       </c>
@@ -2170,36 +2170,36 @@
         <v>6000000</v>
       </c>
       <c r="H21" s="3" t="e">
-        <f>$C21/(F21*D$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="3" t="e">
-        <f>E21/F21/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K21" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L21" s="3" t="e">
-        <f>1/(1/(F$4/F21))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M21" s="3" t="e">
-        <f>1/(1/(E21/E$4))</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="7"/>
       <c r="S21" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T21" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y21" s="3">
@@ -2209,19 +2209,19 @@
         <v>11.06</v>
       </c>
       <c r="AA21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0418825561312608</v>
       </c>
       <c r="AB21" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC21" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -2232,23 +2232,23 @@
         <v>6000000</v>
       </c>
       <c r="H22" s="3" t="e">
-        <f>$C22/(F22*D$34)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="3" t="e">
-        <f>E22/F22/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K22" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="3" t="e">
-        <f>1/(1/(F$4/F22))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="3" t="e">
-        <f>1/(1/(E22/E$4))</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="3">
@@ -2261,15 +2261,15 @@
         <v>13.77</v>
       </c>
       <c r="S22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96027454242928456</v>
       </c>
       <c r="T22" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2774435720834383</v>
       </c>
       <c r="Y22" s="3">
@@ -2279,19 +2279,19 @@
         <v>14.28</v>
       </c>
       <c r="AA22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.95120898100172702</v>
       </c>
       <c r="AB22" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC22" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -2311,23 +2311,23 @@
         <v>3714</v>
       </c>
       <c r="H23" s="3">
-        <f>$C23/(F23*D$34)</f>
+        <f t="shared" si="0"/>
         <v>1.4124293785310735</v>
       </c>
       <c r="J23" s="3">
-        <f>E23/F23/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.5599894067796605</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1470043236565781</v>
       </c>
       <c r="L23" s="3">
-        <f>1/(1/(F$4/F23))</f>
+        <f t="shared" si="2"/>
         <v>0.23638418079096046</v>
       </c>
       <c r="M23" s="3">
-        <f>1/(1/(E23/E$4))</f>
+        <f t="shared" si="3"/>
         <v>5.2635238314194783</v>
       </c>
       <c r="Q23" s="7">
@@ -2335,35 +2335,38 @@
         <v>5284</v>
       </c>
       <c r="S23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0990016638935107</v>
       </c>
       <c r="T23" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="3" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.027583E-2</v>
       </c>
       <c r="Y23" s="7">
-        <f t="shared" ref="Y23" si="9">G23+1370</f>
+        <f t="shared" ref="Y23" si="13">G23+1370</f>
         <v>5084</v>
       </c>
       <c r="AA23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0975820379965457</v>
       </c>
       <c r="AB23" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC23" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC23" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6722098726456698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2383,23 +2386,23 @@
         <v>3302</v>
       </c>
       <c r="H24" s="3">
-        <f>$C24/(F24*D$34)</f>
+        <f t="shared" si="0"/>
         <v>2.1551724137931036</v>
       </c>
       <c r="J24" s="3">
-        <f>E24/F24/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>3.5932076149425289</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0197652872143299</v>
       </c>
       <c r="L24" s="3">
-        <f>1/(1/(F$4/F24))</f>
+        <f t="shared" si="2"/>
         <v>0.72137931034482761</v>
       </c>
       <c r="M24" s="3">
-        <f>1/(1/(E24/E$4))</f>
+        <f t="shared" si="3"/>
         <v>2.4208922715777499</v>
       </c>
       <c r="O24" s="3">
@@ -2415,16 +2418,19 @@
         <v>12.6</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0076955074875209</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.59330143540669855</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.855410808493513</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1.1030710000000001E-2</v>
       </c>
       <c r="X24" s="3">
         <v>5.1999999999999998E-2</v>
@@ -2433,19 +2439,19 @@
         <v>4661</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0062607944732298</v>
       </c>
       <c r="AB24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0346153846153847</v>
       </c>
-      <c r="AC24" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC24" s="3">
+        <f t="shared" si="10"/>
+        <v>1.7950532622952424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>38</v>
       </c>
@@ -2465,23 +2471,23 @@
         <v>3708</v>
       </c>
       <c r="H25" s="3">
-        <f>$C25/(F25*D$34)</f>
+        <f t="shared" si="0"/>
         <v>1.4204545454545454</v>
       </c>
       <c r="J25" s="3">
-        <f>E25/F25/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.7704450757575758</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1451513279802348</v>
       </c>
       <c r="L25" s="3">
-        <f>1/(1/(F$4/F25))</f>
+        <f t="shared" si="2"/>
         <v>0.47545454545454557</v>
       </c>
       <c r="M25" s="3">
-        <f>1/(1/(E25/E$4))</f>
+        <f t="shared" si="3"/>
         <v>2.832026910930145</v>
       </c>
       <c r="O25" s="3">
@@ -2492,16 +2498,19 @@
         <v>5278</v>
       </c>
       <c r="S25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0977537437603992</v>
       </c>
       <c r="T25" s="3" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8194804853935729</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.01</v>
       </c>
       <c r="X25" s="3">
         <v>5.1999999999999998E-2</v>
@@ -2510,19 +2519,19 @@
         <v>5078</v>
       </c>
       <c r="AA25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.096286701208981</v>
       </c>
       <c r="AB25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.0346153846153847</v>
       </c>
-      <c r="AC25" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC25" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6273234110000554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2536,23 +2545,23 @@
         <v>3715</v>
       </c>
       <c r="H26" s="3" t="e">
-        <f t="shared" ref="H26:H29" si="10">$C26/(F26*D$34)</f>
+        <f t="shared" ref="H26:H29" si="14">$C26/(F26*D$34)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="3" t="e">
-        <f>E26/F26/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.147313156269302</v>
       </c>
       <c r="L26" s="3" t="e">
-        <f>1/(1/(F$4/F26))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M26" s="3" t="e">
-        <f>1/(1/(E26/E$4))</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="3">
@@ -2568,15 +2577,15 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0958818635607321</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.66936572199730093</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.971392575613085</v>
       </c>
       <c r="X26" s="3">
@@ -2586,19 +2595,19 @@
         <v>5085</v>
       </c>
       <c r="AA26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0977979274611398</v>
       </c>
       <c r="AB26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99629629629629635</v>
       </c>
       <c r="AC26" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -2615,23 +2624,23 @@
         <v>3116</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.987571701720841</v>
       </c>
       <c r="J27" s="3">
-        <f>E27/F27/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.96232242124768375</v>
       </c>
       <c r="L27" s="3">
-        <f>1/(1/(F$4/F27))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M27" s="3" t="e">
-        <f>1/(1/(E27/E$4))</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="3">
@@ -2647,15 +2656,15 @@
         <v>13.8</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96942595673876875</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3087071240105541</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99754678518622197</v>
       </c>
       <c r="W27" s="3">
@@ -2671,19 +2680,19 @@
         <v>140</v>
       </c>
       <c r="AA27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.96653713298791022</v>
       </c>
       <c r="AB27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.43387096774193551</v>
       </c>
       <c r="AC27" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.89550956377968649</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2703,26 +2712,26 @@
         <v>3427</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.9123951537744643</v>
       </c>
       <c r="I28" s="3">
         <v>12.9</v>
       </c>
       <c r="J28" s="3">
-        <f>E28/F28/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.070824596147872</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0583693638048177</v>
       </c>
       <c r="L28" s="3">
-        <f>1/(1/(F$4/F28))</f>
+        <f t="shared" si="2"/>
         <v>0.9748369058713886</v>
       </c>
       <c r="M28" s="3">
-        <f>1/(1/(E28/E$4))</f>
+        <f t="shared" si="3"/>
         <v>1.0324479992255848</v>
       </c>
       <c r="O28" s="3">
@@ -2738,15 +2747,15 @@
         <v>12.2</v>
       </c>
       <c r="S28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0411813643926788</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98804780876494036</v>
       </c>
       <c r="U28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99597896744503456</v>
       </c>
       <c r="W28" s="3">
@@ -2762,19 +2771,19 @@
         <v>121</v>
       </c>
       <c r="AA28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0388601036269429</v>
       </c>
       <c r="AB28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.99629629629629635</v>
       </c>
       <c r="AC28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0969543015039722</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -2794,26 +2803,26 @@
         <v>3285</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.8512773722627736</v>
       </c>
       <c r="I29" s="3">
         <v>13.2</v>
       </c>
       <c r="J29" s="3">
-        <f>E29/F29/D$34*1000000000</f>
+        <f t="shared" si="1"/>
         <v>2.7046456812652067</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0145151327980235</v>
       </c>
       <c r="L29" s="3">
-        <f>1/(1/(F$4/F29))</f>
+        <f t="shared" si="2"/>
         <v>3.8175182481751824</v>
       </c>
       <c r="M29" s="3">
-        <f>1/(1/(E29/E$4))</f>
+        <f t="shared" si="3"/>
         <v>0.34433890347639845</v>
       </c>
       <c r="O29" s="3">
@@ -2826,15 +2835,15 @@
         <v>4838</v>
       </c>
       <c r="S29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0062396006655574</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.39139625018591589</v>
       </c>
       <c r="W29" s="3">
@@ -2850,19 +2859,19 @@
         <v>120</v>
       </c>
       <c r="AA29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0004317789291883</v>
       </c>
       <c r="AB29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3.9851851851851854</v>
       </c>
       <c r="AC29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.36400132789590339</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
@@ -2885,40 +2894,40 @@
         <v>4862</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0112312811980033</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.66577181208053693</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.7034987182740005</v>
       </c>
       <c r="AA30" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB30" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC30" s="3" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -2930,164 +2939,164 @@
       </c>
       <c r="Y34" s="7"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y35" s="7"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y36" s="7"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y37" s="7"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E40" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E41" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E42" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E45" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H51" s="1"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
     </row>
   </sheetData>
